--- a/Whole_Catchment/geology/data/geology_data.xlsx
+++ b/Whole_Catchment/geology/data/geology_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -189,9 +189,6 @@
     <t>2001</t>
   </si>
   <si>
-    <t>NV</t>
-  </si>
-  <si>
     <t>2002</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>2027</t>
   </si>
   <si>
-    <t>SV</t>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -336,31 +330,7 @@
     <t>355</t>
   </si>
   <si>
-    <t>LS</t>
-  </si>
-  <si>
     <t>6</t>
-  </si>
-  <si>
-    <t>4001</t>
-  </si>
-  <si>
-    <t>Seven</t>
-  </si>
-  <si>
-    <t>4002</t>
-  </si>
-  <si>
-    <t>4003</t>
-  </si>
-  <si>
-    <t>4004</t>
-  </si>
-  <si>
-    <t>4005</t>
-  </si>
-  <si>
-    <t>0,11</t>
   </si>
   <si>
     <t>Mix</t>
@@ -389,6 +359,15 @@
   <si>
     <t>200,6</t>
   </si>
+  <si>
+    <t>cr_sch</t>
+  </si>
+  <si>
+    <t>cr_sch_gn</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
 </sst>
 </file>
 
@@ -397,12 +376,20 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -466,20 +453,21 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -761,15 +749,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW121"/>
+  <dimension ref="A1:AW116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G122" sqref="G122"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15.6" x14ac:dyDescent="0.3">
@@ -1074,8 +1063,8 @@
       <c r="C3" s="5">
         <v>43.228030000384251</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>56</v>
+      <c r="D3" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E3" s="5">
         <v>4.1040000000000001</v>
@@ -1178,7 +1167,7 @@
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5">
         <v>42.484621000059178</v>
@@ -1186,8 +1175,8 @@
       <c r="C4" s="5">
         <v>43.227588999832513</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>56</v>
+      <c r="D4" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E4" s="5">
         <v>0.05</v>
@@ -1290,7 +1279,7 @@
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5">
         <v>42.482531999951902</v>
@@ -1298,8 +1287,8 @@
       <c r="C5" s="5">
         <v>43.228735999666704</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
+      <c r="D5" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E5" s="5">
         <v>1.07</v>
@@ -1402,7 +1391,7 @@
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="5">
         <v>42.480811999774012</v>
@@ -1410,8 +1399,8 @@
       <c r="C6" s="5">
         <v>43.229299000448577</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>56</v>
+      <c r="D6" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E6" s="5">
         <v>0.95</v>
@@ -1420,7 +1409,7 @@
         <v>54.64</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H6" s="5">
         <v>0.8</v>
@@ -1518,7 +1507,7 @@
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B7" s="5">
         <v>42.480762000166237</v>
@@ -1526,8 +1515,8 @@
       <c r="C7" s="5">
         <v>43.229126999711298</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>56</v>
+      <c r="D7" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E7" s="5">
         <v>3.26</v>
@@ -1628,7 +1617,7 @@
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5">
         <v>42.479376000102377</v>
@@ -1636,8 +1625,8 @@
       <c r="C8" s="5">
         <v>43.229760000123967</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>56</v>
+      <c r="D8" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E8" s="5">
         <v>0.24</v>
@@ -1646,7 +1635,7 @@
         <v>138.05000000000001</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -1732,7 +1721,7 @@
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="5">
         <v>42.477304999925877</v>
@@ -1740,8 +1729,8 @@
       <c r="C9" s="5">
         <v>43.230735000120212</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>56</v>
+      <c r="D9" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E9" s="5">
         <v>4.62</v>
@@ -1850,7 +1839,7 @@
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" s="5">
         <v>42.476786000273762</v>
@@ -1858,8 +1847,8 @@
       <c r="C10" s="5">
         <v>43.231610000001517</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
+      <c r="D10" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E10" s="5">
         <v>14.27</v>
@@ -1868,7 +1857,7 @@
         <v>104.97</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -1964,7 +1953,7 @@
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B11" s="5">
         <v>42.474755000143212</v>
@@ -1972,8 +1961,8 @@
       <c r="C11" s="5">
         <v>43.232109999676823</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>56</v>
+      <c r="D11" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E11" s="5">
         <v>8.3000000000000004E-2</v>
@@ -2072,7 +2061,7 @@
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5">
         <v>42.470527000320892</v>
@@ -2080,8 +2069,8 @@
       <c r="C12" s="5">
         <v>43.233797000131517</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>56</v>
+      <c r="D12" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E12" s="5">
         <v>1.26</v>
@@ -2184,7 +2173,7 @@
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" s="5">
         <v>42.477310000156422</v>
@@ -2192,8 +2181,8 @@
       <c r="C13" s="5">
         <v>43.229892999962033</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>56</v>
+      <c r="D13" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E13" s="5">
         <v>0.37</v>
@@ -2288,7 +2277,7 @@
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B14" s="5">
         <v>42.478300999991227</v>
@@ -2296,8 +2285,8 @@
       <c r="C14" s="5">
         <v>43.229780000146953</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>56</v>
+      <c r="D14" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E14" s="5">
         <v>0.125</v>
@@ -2410,7 +2399,7 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" s="5">
         <v>42.479828000262053</v>
@@ -2418,8 +2407,8 @@
       <c r="C15" s="5">
         <v>43.229155000103219</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>56</v>
+      <c r="D15" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E15" s="5">
         <v>0.26</v>
@@ -2428,7 +2417,7 @@
         <v>74.105000000000004</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H15" s="5">
         <v>0.4</v>
@@ -2528,7 +2517,7 @@
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="5">
         <v>42.482537000182447</v>
@@ -2536,8 +2525,8 @@
       <c r="C16" s="5">
         <v>43.228182000199183</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>56</v>
+      <c r="D16" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E16" s="5">
         <v>0.23</v>
@@ -2634,7 +2623,7 @@
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5">
         <v>42.485105309262678</v>
@@ -2642,8 +2631,8 @@
       <c r="C17" s="5">
         <v>43.227299262550957</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>56</v>
+      <c r="D17" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E17" s="5">
         <v>0.05</v>
@@ -2652,7 +2641,7 @@
         <v>11.28</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -2742,7 +2731,7 @@
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="5">
         <v>42.485508999640672</v>
@@ -2750,8 +2739,8 @@
       <c r="C18" s="5">
         <v>43.226531999652138</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>56</v>
+      <c r="D18" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E18" s="5">
         <v>1.02</v>
@@ -2760,7 +2749,7 @@
         <v>44.84</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="5">
         <v>2.65</v>
@@ -2850,7 +2839,7 @@
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B19" s="5">
         <v>42.480339000444587</v>
@@ -2858,8 +2847,8 @@
       <c r="C19" s="5">
         <v>43.229045000426481</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>56</v>
+      <c r="D19" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E19" s="5">
         <v>20.54</v>
@@ -2960,7 +2949,7 @@
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B20" s="5">
         <v>42.479266000425639</v>
@@ -2968,8 +2957,8 @@
       <c r="C20" s="5">
         <v>43.229580999963218</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>56</v>
+      <c r="D20" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E20" s="5">
         <v>1.03</v>
@@ -3076,7 +3065,7 @@
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B21">
         <v>42.483277000000001</v>
@@ -3084,21 +3073,21 @@
       <c r="C21">
         <v>43.230452999999898</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>56</v>
+      <c r="D21" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7">
         <v>9.2799999999999994</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7">
         <v>3.1</v>
@@ -3179,7 +3168,7 @@
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B22">
         <v>42.477272999999897</v>
@@ -3187,8 +3176,8 @@
       <c r="C22">
         <v>43.231789999999897</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>56</v>
+      <c r="D22" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E22" s="7">
         <v>0.12</v>
@@ -3201,7 +3190,7 @@
       </c>
       <c r="H22" s="7"/>
       <c r="I22" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J22" s="7">
         <v>1.41</v>
@@ -3296,7 +3285,7 @@
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B23">
         <v>42.475268999999898</v>
@@ -3304,8 +3293,8 @@
       <c r="C23">
         <v>43.232179000000002</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>56</v>
+      <c r="D23" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E23" s="7">
         <v>1.34</v>
@@ -3317,7 +3306,7 @@
         <v>246.2</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23" s="7">
         <v>7.0000000000000007E-2</v>
@@ -3405,7 +3394,7 @@
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B24">
         <v>42.474556</v>
@@ -3413,8 +3402,8 @@
       <c r="C24">
         <v>43.232371999999899</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>56</v>
+      <c r="D24" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E24" s="7">
         <v>0.96</v>
@@ -3434,7 +3423,7 @@
         <v>1.88</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="M24" s="7">
         <v>0.23</v>
@@ -3508,7 +3497,7 @@
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B25">
         <v>42.464446000000002</v>
@@ -3516,8 +3505,8 @@
       <c r="C25">
         <v>43.237523000000003</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>56</v>
+      <c r="D25" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E25" s="7">
         <v>0.64</v>
@@ -3617,7 +3606,7 @@
     </row>
     <row r="26" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B26">
         <v>42.464852999999898</v>
@@ -3625,8 +3614,8 @@
       <c r="C26">
         <v>43.236863</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>56</v>
+      <c r="D26" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E26" s="7">
         <v>0.92</v>
@@ -3665,7 +3654,7 @@
       </c>
       <c r="R26" s="7"/>
       <c r="S26" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="T26" s="7">
         <v>1.4</v>
@@ -3724,7 +3713,7 @@
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B27">
         <v>42.467249000000002</v>
@@ -3732,8 +3721,8 @@
       <c r="C27">
         <v>43.235874000000003</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>56</v>
+      <c r="D27" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E27" s="7">
         <v>0.78</v>
@@ -3773,7 +3762,7 @@
         <v>1.3</v>
       </c>
       <c r="T27" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="U27" s="7">
         <v>0.03</v>
@@ -3835,7 +3824,7 @@
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B28">
         <v>42.468364999999899</v>
@@ -3843,8 +3832,8 @@
       <c r="C28">
         <v>43.233657999999899</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>56</v>
+      <c r="D28" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E28" s="7">
         <v>1.65</v>
@@ -3859,7 +3848,7 @@
         <v>0.02</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J28" s="7"/>
       <c r="K28" s="7">
@@ -3950,7 +3939,7 @@
     </row>
     <row r="29" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>42.471519000000001</v>
@@ -3958,8 +3947,8 @@
       <c r="C29">
         <v>43.232047000000001</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>56</v>
+      <c r="D29" s="9" t="s">
+        <v>114</v>
       </c>
       <c r="E29" s="7">
         <v>0.2</v>
@@ -4069,8 +4058,8 @@
       <c r="C30" s="5">
         <v>43.220208</v>
       </c>
-      <c r="D30" s="5" t="s">
-        <v>96</v>
+      <c r="D30" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5">
@@ -4131,7 +4120,7 @@
       </c>
       <c r="AO30" s="5"/>
       <c r="AP30" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ30" s="5">
         <v>0.5</v>
@@ -4159,8 +4148,8 @@
       <c r="C31" s="5">
         <v>43.220460000000003</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>96</v>
+      <c r="D31" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5">
@@ -4227,7 +4216,7 @@
       </c>
       <c r="AO31" s="5"/>
       <c r="AP31" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AQ31" s="5"/>
       <c r="AR31" s="5"/>
@@ -4253,8 +4242,8 @@
       <c r="C32" s="5">
         <v>43.221048000000003</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>96</v>
+      <c r="D32" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5">
@@ -4320,10 +4309,10 @@
         <v>11</v>
       </c>
       <c r="AO32" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP32" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ32" s="5">
         <v>0.5</v>
@@ -4351,8 +4340,8 @@
       <c r="C33" s="5">
         <v>43.220308000000003</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>96</v>
+      <c r="D33" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5">
@@ -4419,10 +4408,10 @@
         <v>0.5</v>
       </c>
       <c r="AP33" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AQ33" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR33" s="5"/>
       <c r="AS33" s="5">
@@ -4449,8 +4438,8 @@
       <c r="C34" s="5">
         <v>43.219876999999897</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>96</v>
+      <c r="D34" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E34" s="5">
         <v>1.31</v>
@@ -4525,7 +4514,7 @@
       </c>
       <c r="AO34" s="5"/>
       <c r="AP34" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AQ34" s="5"/>
       <c r="AR34" s="5"/>
@@ -4551,8 +4540,8 @@
       <c r="C35" s="5">
         <v>43.2212719999999</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>96</v>
+      <c r="D35" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5">
@@ -4621,7 +4610,7 @@
       </c>
       <c r="AO35" s="5"/>
       <c r="AP35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AQ35" s="5"/>
       <c r="AR35" s="5"/>
@@ -4647,8 +4636,8 @@
       <c r="C36" s="5">
         <v>43.220233999999898</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>96</v>
+      <c r="D36" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5">
@@ -4715,10 +4704,10 @@
       </c>
       <c r="AO36" s="5"/>
       <c r="AP36" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AQ36" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR36" s="5"/>
       <c r="AS36" s="5">
@@ -4743,8 +4732,8 @@
       <c r="C37" s="5">
         <v>43.220311000000002</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>96</v>
+      <c r="D37" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5">
@@ -4809,7 +4798,7 @@
       </c>
       <c r="AO37" s="5"/>
       <c r="AP37" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ37" s="5"/>
       <c r="AR37" s="5"/>
@@ -4835,8 +4824,8 @@
       <c r="C38" s="5">
         <v>43.219354000000003</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>96</v>
+      <c r="D38" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E38" s="5"/>
       <c r="F38" s="5">
@@ -4897,7 +4886,7 @@
       </c>
       <c r="AO38" s="5"/>
       <c r="AP38" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ38" s="5">
         <v>0.5</v>
@@ -4925,8 +4914,8 @@
       <c r="C39" s="5">
         <v>43.218505</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>96</v>
+      <c r="D39" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E39" s="5">
         <v>0.56000000000000005</v>
@@ -4997,10 +4986,10 @@
       </c>
       <c r="AO39" s="5"/>
       <c r="AP39" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AQ39" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR39" s="5"/>
       <c r="AS39" s="5">
@@ -5025,8 +5014,8 @@
       <c r="C40" s="5">
         <v>43.2175879999999</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>96</v>
+      <c r="D40" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E40" s="5">
         <v>1.1200000000000001</v>
@@ -5127,8 +5116,8 @@
       <c r="C41" s="5">
         <v>43.220910000000003</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>96</v>
+      <c r="D41" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5">
@@ -5189,10 +5178,10 @@
       </c>
       <c r="AO41" s="5"/>
       <c r="AP41" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ41" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR41" s="5"/>
       <c r="AS41" s="5">
@@ -5217,8 +5206,8 @@
       <c r="C42" s="5">
         <v>43.21978</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>96</v>
+      <c r="D42" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E42" s="5"/>
       <c r="F42" s="5">
@@ -5286,13 +5275,13 @@
         <v>6</v>
       </c>
       <c r="AO42" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP42" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ42" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR42" s="5"/>
       <c r="AS42" s="5">
@@ -5317,8 +5306,8 @@
       <c r="C43" s="5">
         <v>43.216532999999899</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>96</v>
+      <c r="D43" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E43" s="5">
         <v>0.5</v>
@@ -5389,7 +5378,7 @@
       </c>
       <c r="AO43" s="5"/>
       <c r="AP43" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AQ43" s="5"/>
       <c r="AR43" s="5"/>
@@ -5415,8 +5404,8 @@
       <c r="C44" s="5">
         <v>43.215865000000001</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>96</v>
+      <c r="D44" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E44" s="5">
         <v>0.35</v>
@@ -5487,7 +5476,7 @@
       </c>
       <c r="AO44" s="5"/>
       <c r="AP44" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ44" s="5"/>
       <c r="AR44" s="5"/>
@@ -5513,8 +5502,8 @@
       <c r="C45" s="5">
         <v>43.218026000000002</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>96</v>
+      <c r="D45" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E45" s="5">
         <v>0.38</v>
@@ -5585,7 +5574,7 @@
       </c>
       <c r="AO45" s="5"/>
       <c r="AP45" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ45" s="5"/>
       <c r="AR45" s="5"/>
@@ -5611,8 +5600,8 @@
       <c r="C46" s="5">
         <v>43.217697000000001</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>96</v>
+      <c r="D46" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E46" s="5">
         <v>0.69</v>
@@ -5679,7 +5668,7 @@
       </c>
       <c r="AO46" s="5"/>
       <c r="AP46" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AQ46" s="5"/>
       <c r="AR46" s="5"/>
@@ -5705,8 +5694,8 @@
       <c r="C47" s="5">
         <v>43.2182859999999</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>96</v>
+      <c r="D47" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E47" s="5">
         <v>0.52</v>
@@ -5773,7 +5762,7 @@
       </c>
       <c r="AO47" s="5"/>
       <c r="AP47" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AQ47" s="5"/>
       <c r="AR47" s="5"/>
@@ -5799,8 +5788,8 @@
       <c r="C48" s="5">
         <v>43.218822000000003</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>96</v>
+      <c r="D48" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E48" s="5">
         <v>0.46</v>
@@ -5871,7 +5860,7 @@
       </c>
       <c r="AO48" s="5"/>
       <c r="AP48" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AQ48" s="5"/>
       <c r="AR48" s="5"/>
@@ -5897,8 +5886,8 @@
       <c r="C49" s="5">
         <v>43.217169552100003</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>96</v>
+      <c r="D49" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5">
@@ -5969,10 +5958,10 @@
       </c>
       <c r="AO49" s="5"/>
       <c r="AP49" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ49" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AR49" s="5"/>
       <c r="AS49" s="5">
@@ -5985,7 +5974,7 @@
         <v>19</v>
       </c>
       <c r="AV49" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AW49" s="5"/>
     </row>
@@ -5999,8 +5988,8 @@
       <c r="C50" s="5">
         <v>43.219298332500003</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>96</v>
+      <c r="D50" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E50" s="5">
         <v>1.02</v>
@@ -6067,10 +6056,10 @@
       </c>
       <c r="AO50" s="5"/>
       <c r="AP50" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AQ50" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR50" s="5"/>
       <c r="AS50" s="5">
@@ -6095,8 +6084,8 @@
       <c r="C51" s="5">
         <v>43.220357999999898</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>96</v>
+      <c r="D51" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5">
@@ -6162,10 +6151,10 @@
         <v>5</v>
       </c>
       <c r="AO51" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP51" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ51" s="5"/>
       <c r="AR51" s="5"/>
@@ -6191,8 +6180,8 @@
       <c r="C52" s="5">
         <v>43.220919000000002</v>
       </c>
-      <c r="D52" s="5" t="s">
-        <v>96</v>
+      <c r="D52" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5">
@@ -6256,10 +6245,10 @@
         <v>11</v>
       </c>
       <c r="AO52" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP52" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ52" s="5"/>
       <c r="AR52" s="5"/>
@@ -6285,8 +6274,8 @@
       <c r="C53" s="5">
         <v>43.220782</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>96</v>
+      <c r="D53" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="5">
@@ -6353,7 +6342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AQ53" s="5"/>
       <c r="AR53" s="5"/>
@@ -6379,8 +6368,8 @@
       <c r="C54" s="5">
         <v>43.220412000000003</v>
       </c>
-      <c r="D54" s="5" t="s">
-        <v>96</v>
+      <c r="D54" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E54" s="5">
         <v>0.51</v>
@@ -6460,10 +6449,10 @@
         <v>9</v>
       </c>
       <c r="AO54" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AP54" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ54" s="5"/>
       <c r="AR54" s="5"/>
@@ -6489,8 +6478,8 @@
       <c r="C55" s="5">
         <v>43.220792000000003</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>96</v>
+      <c r="D55" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="5">
@@ -6561,7 +6550,7 @@
         <v>0.5</v>
       </c>
       <c r="AP55" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ55" s="5">
         <v>0.5</v>
@@ -6589,8 +6578,8 @@
       <c r="C56" s="5">
         <v>43.220773999999899</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>96</v>
+      <c r="D56" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E56" s="5">
         <v>0.59</v>
@@ -6660,10 +6649,10 @@
         <v>11</v>
       </c>
       <c r="AO56" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP56" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ56" s="5"/>
       <c r="AR56" s="5"/>
@@ -6689,8 +6678,8 @@
       <c r="C57" s="5">
         <v>43.220382999999899</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>96</v>
+      <c r="D57" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E57" s="5">
         <v>0.21</v>
@@ -6763,7 +6752,7 @@
       </c>
       <c r="AO57" s="5"/>
       <c r="AP57" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AQ57" s="5"/>
       <c r="AR57" s="5"/>
@@ -6789,8 +6778,8 @@
       <c r="C58" s="5">
         <v>43.218566000120859</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>96</v>
+      <c r="D58" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E58" s="5">
         <v>0.87</v>
@@ -6799,7 +6788,7 @@
         <v>43.4</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="5"/>
@@ -6899,8 +6888,8 @@
       <c r="C59" s="5">
         <v>43.21873199968212</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>96</v>
+      <c r="D59" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E59" s="5">
         <v>10.69</v>
@@ -6909,7 +6898,7 @@
         <v>109.44</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H59" s="5">
         <v>1.05</v>
@@ -7009,8 +6998,8 @@
       <c r="C60" s="5">
         <v>43.219430000394247</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>96</v>
+      <c r="D60" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E60" s="5">
         <v>6.5</v>
@@ -7121,8 +7110,8 @@
       <c r="C61" s="5">
         <v>43.222166999807257</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>105</v>
+      <c r="D61" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E61" s="5">
         <v>20.350000000000001</v>
@@ -7231,8 +7220,8 @@
       <c r="C62" s="5">
         <v>43.222715999943489</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>105</v>
+      <c r="D62" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E62" s="5">
         <v>21.22</v>
@@ -7345,8 +7334,8 @@
       <c r="C63" s="5">
         <v>43.225065000000001</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>105</v>
+      <c r="D63" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E63" s="5">
         <v>0.69</v>
@@ -7415,10 +7404,10 @@
       </c>
       <c r="AO63" s="5"/>
       <c r="AP63" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AQ63" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR63" s="5"/>
       <c r="AS63" s="5">
@@ -7443,8 +7432,8 @@
       <c r="C64" s="5">
         <v>43.224445000000003</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>105</v>
+      <c r="D64" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E64" s="5">
         <v>0.33</v>
@@ -7523,7 +7512,7 @@
       </c>
       <c r="AO64" s="5"/>
       <c r="AP64" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AQ64" s="5"/>
       <c r="AR64" s="5"/>
@@ -7549,8 +7538,8 @@
       <c r="C65" s="5">
         <v>43.224632999999898</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>105</v>
+      <c r="D65" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E65" s="5">
         <v>0.42</v>
@@ -7626,10 +7615,10 @@
         <v>15</v>
       </c>
       <c r="AO65" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP65" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AQ65" s="5"/>
       <c r="AR65" s="5"/>
@@ -7643,7 +7632,7 @@
         <v>19</v>
       </c>
       <c r="AV65" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AW65" s="5"/>
     </row>
@@ -7657,8 +7646,8 @@
       <c r="C66" s="5">
         <v>43.224711999999897</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>105</v>
+      <c r="D66" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E66" s="5">
         <v>0.3</v>
@@ -7739,10 +7728,10 @@
       </c>
       <c r="AO66" s="5"/>
       <c r="AP66" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ66" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR66" s="5"/>
       <c r="AS66" s="5">
@@ -7767,8 +7756,8 @@
       <c r="C67" s="5">
         <v>43.225448999999898</v>
       </c>
-      <c r="D67" s="5" t="s">
-        <v>105</v>
+      <c r="D67" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E67" s="5">
         <v>0.43</v>
@@ -7845,7 +7834,7 @@
       </c>
       <c r="AO67" s="5"/>
       <c r="AP67" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ67" s="5">
         <v>0.5</v>
@@ -7873,8 +7862,8 @@
       <c r="C68" s="5">
         <v>43.223865000000004</v>
       </c>
-      <c r="D68" s="5" t="s">
-        <v>105</v>
+      <c r="D68" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E68" s="5">
         <v>1.51</v>
@@ -7949,10 +7938,10 @@
       </c>
       <c r="AO68" s="5"/>
       <c r="AP68" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AQ68" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR68" s="5"/>
       <c r="AS68" s="5">
@@ -7977,8 +7966,8 @@
       <c r="C69" s="5">
         <v>43.223379999999899</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>105</v>
+      <c r="D69" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E69" s="5">
         <v>1.5</v>
@@ -8047,10 +8036,10 @@
       </c>
       <c r="AO69" s="5"/>
       <c r="AP69" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AQ69" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR69" s="5"/>
       <c r="AS69" s="5">
@@ -8075,8 +8064,8 @@
       <c r="C70" s="5">
         <v>43.223039999999898</v>
       </c>
-      <c r="D70" s="5" t="s">
-        <v>105</v>
+      <c r="D70" s="9" t="s">
+        <v>113</v>
       </c>
       <c r="E70" s="5">
         <v>0.19</v>
@@ -8142,13 +8131,13 @@
         <v>24</v>
       </c>
       <c r="AO70" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP70" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ70" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AR70" s="5"/>
       <c r="AS70" s="5">
@@ -8175,8 +8164,8 @@
       <c r="C71" s="5">
         <v>43.221727999999899</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>105</v>
+      <c r="D71" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="E71" s="5">
         <v>1.1100000000000001</v>
@@ -8248,13 +8237,13 @@
         <v>19</v>
       </c>
       <c r="AO71" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AP71" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AQ71" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AR71" s="5"/>
       <c r="AS71" s="5">
@@ -8270,602 +8259,614 @@
       <c r="AW71" s="5"/>
     </row>
     <row r="72" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A72" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72">
-        <v>42.495645000000003</v>
-      </c>
-      <c r="C72">
-        <v>43.222166000000001</v>
+      <c r="A72" s="5">
+        <v>35</v>
+      </c>
+      <c r="B72" s="5">
+        <v>42.494017999930797</v>
+      </c>
+      <c r="C72" s="5">
+        <v>43.221466999902191</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E72" s="7">
-        <v>0.34</v>
-      </c>
-      <c r="F72" s="7">
-        <v>8.75</v>
-      </c>
-      <c r="G72" s="7">
-        <v>258.3</v>
-      </c>
-      <c r="H72" s="7"/>
-      <c r="I72" s="7"/>
-      <c r="J72" s="7"/>
-      <c r="K72" s="7">
-        <v>6.61</v>
-      </c>
-      <c r="L72" s="7">
-        <v>0.43</v>
-      </c>
-      <c r="M72" s="7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="N72" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="O72" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="P72" s="7">
-        <v>2.63</v>
-      </c>
-      <c r="Q72" s="7"/>
-      <c r="R72" s="7"/>
-      <c r="S72" s="7"/>
-      <c r="T72" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="U72" s="7"/>
-      <c r="V72" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="W72" s="7">
-        <v>2.5</v>
-      </c>
-      <c r="X72" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="Y72" s="7"/>
-      <c r="Z72" s="7"/>
-      <c r="AA72" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="AB72" s="7"/>
-      <c r="AC72" s="7"/>
-      <c r="AD72" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="E72" s="5">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="F72" s="5">
+        <v>108.36</v>
+      </c>
+      <c r="G72" s="5">
+        <v>372.3</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5">
+        <v>76.7</v>
+      </c>
+      <c r="L72" s="5">
+        <v>15.3</v>
+      </c>
+      <c r="M72" s="5">
+        <v>14.8</v>
+      </c>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="P72" s="5">
+        <v>29.42</v>
+      </c>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="T72" s="5">
+        <v>0.214</v>
+      </c>
+      <c r="U72" s="5">
+        <v>0.126</v>
+      </c>
+      <c r="V72" s="5">
+        <v>0.73</v>
+      </c>
+      <c r="W72" s="5">
+        <v>2.21</v>
+      </c>
+      <c r="X72" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="5"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="5"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
-      <c r="AF72" s="7">
-        <v>0.03</v>
-      </c>
+      <c r="AF72" s="5"/>
       <c r="AG72" s="5"/>
       <c r="AH72" s="5"/>
       <c r="AI72" s="5"/>
       <c r="AJ72" s="5"/>
-      <c r="AK72" s="7"/>
-      <c r="AL72" s="7"/>
-      <c r="AM72" s="7">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="AN72">
-        <v>21</v>
-      </c>
-      <c r="AO72">
-        <v>1</v>
-      </c>
-      <c r="AP72">
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="5"/>
+      <c r="AN72" s="5">
+        <v>14</v>
+      </c>
+      <c r="AO72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP72" s="5">
         <v>2</v>
       </c>
-      <c r="AQ72">
-        <v>0</v>
-      </c>
-      <c r="AS72">
-        <v>58</v>
-      </c>
-      <c r="AT72">
-        <v>2</v>
-      </c>
-      <c r="AU72">
-        <v>15</v>
-      </c>
-      <c r="AV72">
-        <v>0</v>
-      </c>
-      <c r="AW72" s="5"/>
+      <c r="AQ72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="5">
+        <v>45</v>
+      </c>
+      <c r="AT72" s="5">
+        <v>14</v>
+      </c>
+      <c r="AU72" s="5">
+        <v>25</v>
+      </c>
+      <c r="AV72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A73" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B73">
-        <v>42.495595000000002</v>
-      </c>
-      <c r="C73">
-        <v>43.221879999999899</v>
+      <c r="A73" s="5">
+        <v>36</v>
+      </c>
+      <c r="B73" s="5">
+        <v>42.493700999701453</v>
+      </c>
+      <c r="C73" s="5">
+        <v>43.221845000246617</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E73" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="F73" s="7">
-        <v>4.25</v>
-      </c>
-      <c r="G73" s="7">
-        <v>203.7</v>
-      </c>
-      <c r="H73" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7">
-        <v>6.29</v>
-      </c>
-      <c r="L73" s="7">
-        <v>0.22</v>
-      </c>
-      <c r="M73" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="N73" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="O73" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="P73" s="7">
-        <v>1.35</v>
-      </c>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="T73" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="W73" s="7">
-        <v>1.31</v>
-      </c>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="AB73" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="AC73" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="AD73" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="E73" s="5">
+        <v>4.95</v>
+      </c>
+      <c r="F73" s="5">
+        <v>79.08</v>
+      </c>
+      <c r="G73" s="5">
+        <v>402.15</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="L73" s="5">
+        <v>10.75</v>
+      </c>
+      <c r="M73" s="5">
+        <v>1.83</v>
+      </c>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="P73" s="5">
+        <v>20.3</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="W73" s="5">
+        <v>1.28</v>
+      </c>
+      <c r="X73" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="Y73" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="Z73" s="5"/>
+      <c r="AA73" s="5"/>
+      <c r="AB73" s="5"/>
+      <c r="AC73" s="5"/>
+      <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
-      <c r="AF73" s="7">
-        <v>0.05</v>
-      </c>
+      <c r="AF73" s="5"/>
       <c r="AG73" s="5"/>
       <c r="AH73" s="5"/>
       <c r="AI73" s="5"/>
       <c r="AJ73" s="5"/>
-      <c r="AK73" s="7"/>
-      <c r="AL73" s="7"/>
-      <c r="AN73">
-        <v>22</v>
-      </c>
-      <c r="AO73">
-        <v>0</v>
-      </c>
-      <c r="AP73">
+      <c r="AK73" s="5"/>
+      <c r="AL73" s="5"/>
+      <c r="AN73" s="5">
+        <v>10</v>
+      </c>
+      <c r="AO73" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="5">
         <v>1</v>
       </c>
-      <c r="AQ73">
-        <v>0</v>
-      </c>
-      <c r="AS73">
-        <v>61</v>
-      </c>
-      <c r="AT73">
-        <v>2</v>
-      </c>
-      <c r="AU73">
+      <c r="AQ73" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="5">
+        <v>64</v>
+      </c>
+      <c r="AT73" s="5">
+        <v>11</v>
+      </c>
+      <c r="AU73" s="5">
         <v>14</v>
       </c>
-      <c r="AV73">
-        <v>0</v>
-      </c>
-      <c r="AW73" s="5"/>
+      <c r="AV73" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A74" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="B74">
-        <v>42.495238000000001</v>
-      </c>
-      <c r="C74">
-        <v>43.221716000000001</v>
+      <c r="A74" s="5">
+        <v>37</v>
+      </c>
+      <c r="B74" s="5">
+        <v>42.493700999701453</v>
+      </c>
+      <c r="C74" s="5">
+        <v>43.22253699978279</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E74" s="7">
-        <v>0.86</v>
-      </c>
-      <c r="F74" s="7">
-        <v>11.77</v>
-      </c>
-      <c r="G74" s="7">
-        <v>219.5</v>
-      </c>
-      <c r="H74" s="7"/>
-      <c r="I74" s="7"/>
-      <c r="J74" s="7">
-        <v>0.83</v>
-      </c>
-      <c r="K74" s="7">
-        <v>8.68</v>
-      </c>
-      <c r="L74" s="7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="M74" s="7">
-        <v>1.08</v>
-      </c>
-      <c r="N74" s="7">
+        <v>104</v>
+      </c>
+      <c r="E74" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F74" s="5">
+        <v>94.5</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5">
+        <v>82.7</v>
+      </c>
+      <c r="L74" s="5">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M74" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="N74" s="5">
         <v>0.2</v>
       </c>
-      <c r="O74" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="P74" s="7">
-        <v>7.42</v>
-      </c>
-      <c r="Q74" s="7"/>
-      <c r="R74" s="7"/>
-      <c r="S74" s="7"/>
-      <c r="T74" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="U74" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="V74" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="W74" s="7">
-        <v>1.22</v>
-      </c>
-      <c r="X74" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="Y74" s="7"/>
-      <c r="Z74" s="7"/>
-      <c r="AA74" s="7"/>
-      <c r="AB74" s="7"/>
-      <c r="AC74" s="7"/>
-      <c r="AD74" s="7"/>
+      <c r="O74" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="P74" s="5">
+        <v>52.9</v>
+      </c>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="T74" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="W74" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="5"/>
+      <c r="AA74" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="AB74" s="5"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
-      <c r="AF74" s="7"/>
+      <c r="AF74" s="5"/>
       <c r="AG74" s="5"/>
       <c r="AH74" s="5"/>
       <c r="AI74" s="5"/>
       <c r="AJ74" s="5"/>
-      <c r="AK74" s="7"/>
-      <c r="AL74" s="7"/>
-      <c r="AN74">
-        <v>19</v>
-      </c>
-      <c r="AO74">
-        <v>0</v>
-      </c>
-      <c r="AP74">
-        <v>5</v>
-      </c>
-      <c r="AQ74">
-        <v>0</v>
-      </c>
-      <c r="AS74">
-        <v>49</v>
-      </c>
-      <c r="AT74">
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="5"/>
+      <c r="AN74" s="5">
+        <v>12</v>
+      </c>
+      <c r="AO74" s="5">
+        <v>2</v>
+      </c>
+      <c r="AP74" s="5">
+        <v>4</v>
+      </c>
+      <c r="AQ74" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR74" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="5">
+        <v>59</v>
+      </c>
+      <c r="AT74" s="5">
         <v>6</v>
       </c>
-      <c r="AU74">
-        <v>21</v>
-      </c>
-      <c r="AV74">
-        <v>0</v>
-      </c>
-      <c r="AW74" s="5"/>
+      <c r="AU74" s="5">
+        <v>17</v>
+      </c>
+      <c r="AV74" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW74" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A75" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B75">
-        <v>42.494917000000001</v>
-      </c>
-      <c r="C75">
-        <v>43.221516000000001</v>
+      <c r="A75" s="5">
+        <v>38</v>
+      </c>
+      <c r="B75" s="5">
+        <v>42.493627999932301</v>
+      </c>
+      <c r="C75" s="5">
+        <v>43.223115000357041</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E75" s="7">
-        <v>0.52</v>
-      </c>
-      <c r="F75" s="7">
-        <v>11.94</v>
-      </c>
-      <c r="G75" s="7">
-        <v>307.2</v>
-      </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7"/>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7">
-        <v>2.78</v>
-      </c>
-      <c r="L75" s="7">
-        <v>7.15</v>
-      </c>
-      <c r="M75" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="N75" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="O75" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="P75" s="7">
-        <v>2.19</v>
-      </c>
-      <c r="Q75" s="7"/>
-      <c r="R75" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="S75" s="7">
-        <v>1.3</v>
-      </c>
-      <c r="T75" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="U75" s="7"/>
-      <c r="V75" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="W75" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="X75" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Y75" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="Z75" s="7"/>
-      <c r="AA75" s="7"/>
-      <c r="AB75" s="7"/>
-      <c r="AC75" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AD75" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="E75" s="5">
+        <v>1.93</v>
+      </c>
+      <c r="F75" s="5">
+        <v>50.22</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5">
+        <v>28.15</v>
+      </c>
+      <c r="L75" s="5">
+        <v>13.12</v>
+      </c>
+      <c r="M75" s="5">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="N75" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="O75" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="P75" s="5">
+        <v>25.28</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="R75" s="5">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="W75" s="5">
+        <v>1.43</v>
+      </c>
+      <c r="X75" s="5">
+        <v>0.92</v>
+      </c>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
+      <c r="AA75" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="AB75" s="5"/>
+      <c r="AC75" s="5">
+        <v>1.06</v>
+      </c>
+      <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
-      <c r="AF75" s="7"/>
+      <c r="AF75" s="5"/>
       <c r="AG75" s="5"/>
       <c r="AH75" s="5"/>
       <c r="AI75" s="5"/>
       <c r="AJ75" s="5"/>
-      <c r="AK75" s="7"/>
-      <c r="AL75" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="AN75">
-        <v>22</v>
-      </c>
-      <c r="AO75">
-        <v>1</v>
-      </c>
-      <c r="AP75">
-        <v>4</v>
-      </c>
-      <c r="AQ75">
-        <v>0</v>
-      </c>
-      <c r="AS75">
-        <v>46</v>
-      </c>
-      <c r="AT75">
-        <v>6</v>
-      </c>
-      <c r="AU75">
-        <v>21</v>
-      </c>
-      <c r="AV75">
-        <v>0</v>
-      </c>
-      <c r="AW75" s="5"/>
+      <c r="AK75" s="5"/>
+      <c r="AL75" s="5"/>
+      <c r="AN75" s="5">
+        <v>13</v>
+      </c>
+      <c r="AO75" s="5">
+        <v>2</v>
+      </c>
+      <c r="AP75" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ75" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR75" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS75" s="5">
+        <v>59</v>
+      </c>
+      <c r="AT75" s="5">
+        <v>7</v>
+      </c>
+      <c r="AU75" s="5">
+        <v>14</v>
+      </c>
+      <c r="AV75" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW75" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A76" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B76">
-        <v>42.494281000000001</v>
-      </c>
-      <c r="C76">
-        <v>43.221173</v>
+      <c r="A76" s="5">
+        <v>39</v>
+      </c>
+      <c r="B76" s="5">
+        <v>42.493635000255097</v>
+      </c>
+      <c r="C76" s="5">
+        <v>43.223565999571292</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="F76" s="7">
-        <v>7.09</v>
-      </c>
-      <c r="G76" s="7">
-        <v>282.39999999999998</v>
-      </c>
-      <c r="H76" s="7"/>
-      <c r="I76" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="J76" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="K76" s="7">
-        <v>7.24</v>
-      </c>
-      <c r="L76" s="7">
-        <v>1.26</v>
-      </c>
-      <c r="M76" s="7">
-        <v>0.73</v>
-      </c>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="P76" s="7">
-        <v>6.18</v>
-      </c>
-      <c r="Q76" s="7"/>
-      <c r="R76" s="7"/>
-      <c r="S76" s="7"/>
-      <c r="T76" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="U76" s="7"/>
-      <c r="V76" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="W76" s="7">
-        <v>1.6</v>
-      </c>
-      <c r="X76" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="Y76" s="7"/>
-      <c r="Z76" s="7"/>
-      <c r="AA76" s="7"/>
-      <c r="AB76" s="7"/>
-      <c r="AC76" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="AD76" s="7"/>
+        <v>104</v>
+      </c>
+      <c r="E76" s="5">
+        <v>1.98</v>
+      </c>
+      <c r="F76" s="5">
+        <v>23.42</v>
+      </c>
+      <c r="G76" s="5">
+        <v>53.4</v>
+      </c>
+      <c r="H76" s="5">
+        <v>1.17</v>
+      </c>
+      <c r="I76" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="J76" s="5">
+        <v>1.04</v>
+      </c>
+      <c r="K76" s="5">
+        <v>22.21</v>
+      </c>
+      <c r="L76" s="5">
+        <v>11.8</v>
+      </c>
+      <c r="M76" s="5">
+        <v>1.82</v>
+      </c>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5">
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="P76" s="5">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="S76" s="5">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="T76" s="5">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="W76" s="5">
+        <v>1.54</v>
+      </c>
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="5"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="5"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
-      <c r="AF76" s="7"/>
+      <c r="AF76" s="5"/>
       <c r="AG76" s="5"/>
       <c r="AH76" s="5"/>
       <c r="AI76" s="5"/>
       <c r="AJ76" s="5"/>
-      <c r="AK76" s="7"/>
-      <c r="AL76" s="7"/>
-      <c r="AN76">
-        <v>11</v>
-      </c>
-      <c r="AO76">
-        <v>0</v>
-      </c>
-      <c r="AP76">
-        <v>2</v>
-      </c>
-      <c r="AQ76">
-        <v>0</v>
-      </c>
-      <c r="AS76">
-        <v>49</v>
-      </c>
-      <c r="AT76">
-        <v>21</v>
-      </c>
-      <c r="AU76">
-        <v>16</v>
-      </c>
-      <c r="AV76">
-        <v>0</v>
-      </c>
-      <c r="AW76" s="5"/>
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="5"/>
+      <c r="AN76" s="5">
+        <v>12</v>
+      </c>
+      <c r="AO76" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="5">
+        <v>1</v>
+      </c>
+      <c r="AQ76" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR76" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS76" s="5">
+        <v>57</v>
+      </c>
+      <c r="AT76" s="5">
+        <v>13</v>
+      </c>
+      <c r="AU76" s="5">
+        <v>17</v>
+      </c>
+      <c r="AV76" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW76" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A77" s="5">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B77" s="5">
-        <v>42.494017999930797</v>
+        <v>42.493559000347659</v>
       </c>
       <c r="C77" s="5">
-        <v>43.221466999902191</v>
+        <v>43.224146000237802</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E77" s="5">
-        <v>10.039999999999999</v>
+        <v>2.15</v>
       </c>
       <c r="F77" s="5">
-        <v>108.36</v>
+        <v>64.62</v>
       </c>
       <c r="G77" s="5">
-        <v>372.3</v>
+        <v>395.4</v>
       </c>
       <c r="H77" s="5"/>
       <c r="I77" s="5"/>
       <c r="J77" s="5"/>
       <c r="K77" s="5">
-        <v>76.7</v>
+        <v>127.5</v>
       </c>
       <c r="L77" s="5">
-        <v>15.3</v>
+        <v>10.88</v>
       </c>
       <c r="M77" s="5">
-        <v>14.8</v>
-      </c>
-      <c r="N77" s="5"/>
+        <v>1.56</v>
+      </c>
+      <c r="N77" s="5">
+        <v>0.42</v>
+      </c>
       <c r="O77" s="5">
-        <v>1.25</v>
+        <v>0.375</v>
       </c>
       <c r="P77" s="5">
-        <v>29.42</v>
-      </c>
-      <c r="Q77" s="5"/>
+        <v>22.6</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>0.48</v>
+      </c>
       <c r="R77" s="5"/>
       <c r="S77" s="5">
-        <v>0.26</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="T77" s="5">
-        <v>0.214</v>
-      </c>
-      <c r="U77" s="5">
-        <v>0.126</v>
-      </c>
+        <v>0.19</v>
+      </c>
+      <c r="U77" s="5"/>
       <c r="V77" s="5">
-        <v>0.73</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="W77" s="5">
-        <v>2.21</v>
-      </c>
-      <c r="X77" s="5">
-        <v>0.64</v>
-      </c>
+        <v>1.89</v>
+      </c>
+      <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
       <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
-      <c r="AB77" s="5"/>
+      <c r="AA77" s="5">
+        <v>0.82</v>
+      </c>
+      <c r="AB77" s="5">
+        <v>0.53100000000000003</v>
+      </c>
       <c r="AC77" s="5"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
@@ -8877,13 +8878,13 @@
       <c r="AK77" s="5"/>
       <c r="AL77" s="5"/>
       <c r="AN77" s="5">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AO77" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP77" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ77" s="5">
         <v>0</v>
@@ -8892,13 +8893,13 @@
         <v>0</v>
       </c>
       <c r="AS77" s="5">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AT77" s="5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AU77" s="5">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="AV77" s="5">
         <v>0</v>
@@ -8909,65 +8910,67 @@
     </row>
     <row r="78" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A78" s="5">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B78" s="5">
-        <v>42.493700999701453</v>
+        <v>42.493025000000003</v>
       </c>
       <c r="C78" s="5">
-        <v>43.221845000246617</v>
+        <v>43.224429999999899</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E78" s="5">
-        <v>4.95</v>
+        <v>0.52</v>
       </c>
       <c r="F78" s="5">
-        <v>79.08</v>
+        <v>3.23</v>
       </c>
       <c r="G78" s="5">
-        <v>402.15</v>
+        <v>463.9</v>
       </c>
       <c r="H78" s="5"/>
       <c r="I78" s="5"/>
       <c r="J78" s="5"/>
       <c r="K78" s="5">
-        <v>35.700000000000003</v>
+        <v>5.94</v>
       </c>
       <c r="L78" s="5">
-        <v>10.75</v>
+        <v>0.6</v>
       </c>
       <c r="M78" s="5">
-        <v>1.83</v>
-      </c>
-      <c r="N78" s="5"/>
+        <v>0.43</v>
+      </c>
+      <c r="N78" s="5">
+        <v>0.2</v>
+      </c>
       <c r="O78" s="5">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="P78" s="5">
-        <v>20.3</v>
-      </c>
-      <c r="Q78" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="R78" s="5"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5">
+        <v>0.1</v>
+      </c>
       <c r="S78" s="5"/>
       <c r="T78" s="5">
-        <v>0.38</v>
+        <v>0.2</v>
       </c>
       <c r="U78" s="5"/>
       <c r="V78" s="5">
-        <v>0.44</v>
+        <v>0.3</v>
       </c>
       <c r="W78" s="5">
-        <v>1.28</v>
+        <v>0.9</v>
       </c>
       <c r="X78" s="5">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="Y78" s="5">
-        <v>0.85</v>
+        <v>0.06</v>
       </c>
       <c r="Z78" s="5"/>
       <c r="AA78" s="5"/>
@@ -8983,101 +8986,83 @@
       <c r="AK78" s="5"/>
       <c r="AL78" s="5"/>
       <c r="AN78" s="5">
-        <v>10</v>
-      </c>
-      <c r="AO78" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP78" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ78" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR78" s="5">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="AO78" s="5"/>
+      <c r="AP78" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AQ78" s="5"/>
+      <c r="AR78" s="5"/>
       <c r="AS78" s="5">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="AT78" s="5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AU78" s="5">
         <v>14</v>
       </c>
-      <c r="AV78" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW78" s="5">
-        <v>0</v>
-      </c>
+      <c r="AV78" s="5"/>
+      <c r="AW78" s="5"/>
     </row>
     <row r="79" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A79" s="5">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B79" s="5">
-        <v>42.493700999701453</v>
+        <v>42.491557999999898</v>
       </c>
       <c r="C79" s="5">
-        <v>43.22253699978279</v>
+        <v>43.223322000000003</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E79" s="5">
-        <v>2.0699999999999998</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E79" s="5"/>
       <c r="F79" s="5">
-        <v>94.5</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>115</v>
+        <v>1.49</v>
+      </c>
+      <c r="G79" s="5">
+        <v>432.7</v>
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="5"/>
       <c r="J79" s="5"/>
       <c r="K79" s="5">
-        <v>82.7</v>
+        <v>1.73</v>
       </c>
       <c r="L79" s="5">
-        <v>4.3499999999999996</v>
+        <v>0.16</v>
       </c>
       <c r="M79" s="5">
-        <v>4.3</v>
-      </c>
-      <c r="N79" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="O79" s="5">
-        <v>1.1499999999999999</v>
-      </c>
+        <v>0.4</v>
+      </c>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5"/>
       <c r="P79" s="5">
-        <v>52.9</v>
+        <v>0.34</v>
       </c>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
-      <c r="S79" s="5">
-        <v>0.21299999999999999</v>
-      </c>
+      <c r="S79" s="5"/>
       <c r="T79" s="5">
-        <v>0.33</v>
+        <v>0.1</v>
       </c>
       <c r="U79" s="5"/>
       <c r="V79" s="5">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="W79" s="5">
-        <v>2.97</v>
+        <v>0.4</v>
       </c>
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
       <c r="Z79" s="5"/>
-      <c r="AA79" s="5">
-        <v>0.77</v>
-      </c>
-      <c r="AB79" s="5"/>
+      <c r="AA79" s="5"/>
+      <c r="AB79" s="5">
+        <v>0.09</v>
+      </c>
       <c r="AC79" s="5"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
@@ -9089,213 +9074,201 @@
       <c r="AK79" s="5"/>
       <c r="AL79" s="5"/>
       <c r="AN79" s="5">
-        <v>12</v>
-      </c>
-      <c r="AO79" s="5">
-        <v>2</v>
-      </c>
-      <c r="AP79" s="5">
-        <v>4</v>
-      </c>
-      <c r="AQ79" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR79" s="5">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AO79" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AP79" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ79" s="5"/>
+      <c r="AR79" s="5"/>
       <c r="AS79" s="5">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AT79" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AU79" s="5">
-        <v>17</v>
-      </c>
-      <c r="AV79" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW79" s="5">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AV79" s="5"/>
+      <c r="AW79" s="5"/>
     </row>
     <row r="80" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A80" s="5">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B80" s="5">
-        <v>42.493627999932301</v>
+        <v>42.491397999999897</v>
       </c>
       <c r="C80" s="5">
-        <v>43.223115000357041</v>
+        <v>43.223177</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E80" s="5">
-        <v>1.93</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F80" s="5">
-        <v>50.22</v>
-      </c>
-      <c r="G80" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H80" s="5"/>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="G80" s="5">
+        <v>375.4</v>
+      </c>
+      <c r="H80" s="5">
+        <v>0.92</v>
+      </c>
       <c r="I80" s="5"/>
       <c r="J80" s="5"/>
       <c r="K80" s="5">
-        <v>28.15</v>
+        <v>1.59</v>
       </c>
       <c r="L80" s="5">
-        <v>13.12</v>
+        <v>1.21</v>
       </c>
       <c r="M80" s="5">
-        <v>4.9800000000000004</v>
+        <v>0.5</v>
       </c>
       <c r="N80" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O80" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="P80" s="5">
+        <v>0.23</v>
+      </c>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="T80" s="5">
         <v>0.2</v>
       </c>
-      <c r="O80" s="5">
-        <v>0.65</v>
-      </c>
-      <c r="P80" s="5">
-        <v>25.28</v>
-      </c>
-      <c r="Q80" s="5">
-        <v>0.42</v>
-      </c>
-      <c r="R80" s="5">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5">
-        <v>0.23</v>
-      </c>
-      <c r="U80" s="5"/>
+      <c r="U80" s="5">
+        <v>0.03</v>
+      </c>
       <c r="V80" s="5">
-        <v>0.65</v>
+        <v>0.3</v>
       </c>
       <c r="W80" s="5">
-        <v>1.43</v>
+        <v>0.05</v>
       </c>
       <c r="X80" s="5">
-        <v>0.92</v>
+        <v>0.4</v>
       </c>
       <c r="Y80" s="5"/>
       <c r="Z80" s="5"/>
-      <c r="AA80" s="5">
-        <v>0.74</v>
-      </c>
+      <c r="AA80" s="5"/>
       <c r="AB80" s="5"/>
-      <c r="AC80" s="5">
-        <v>1.06</v>
-      </c>
-      <c r="AD80" s="5"/>
+      <c r="AC80" s="5"/>
+      <c r="AD80" s="5">
+        <v>0.13</v>
+      </c>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
       <c r="AG80" s="5"/>
       <c r="AH80" s="5"/>
       <c r="AI80" s="5"/>
       <c r="AJ80" s="5"/>
-      <c r="AK80" s="5"/>
+      <c r="AK80" s="5">
+        <v>0.15</v>
+      </c>
       <c r="AL80" s="5"/>
       <c r="AN80" s="5">
-        <v>13</v>
-      </c>
-      <c r="AO80" s="5">
-        <v>2</v>
-      </c>
-      <c r="AP80" s="5">
-        <v>5</v>
-      </c>
-      <c r="AQ80" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR80" s="5">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AO80" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP80" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ80" s="5"/>
+      <c r="AR80" s="5"/>
       <c r="AS80" s="5">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AT80" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AU80" s="5">
-        <v>14</v>
-      </c>
-      <c r="AV80" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW80" s="5">
-        <v>0</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="AV80" s="5"/>
+      <c r="AW80" s="5"/>
     </row>
     <row r="81" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A81" s="5">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="B81" s="5">
-        <v>42.493635000255097</v>
+        <v>42.491610000000001</v>
       </c>
       <c r="C81" s="5">
-        <v>43.223565999571292</v>
+        <v>43.222802999999899</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E81" s="5">
-        <v>1.98</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F81" s="5">
-        <v>23.42</v>
+        <v>2.59</v>
       </c>
       <c r="G81" s="5">
-        <v>53.4</v>
-      </c>
-      <c r="H81" s="5">
-        <v>1.17</v>
-      </c>
-      <c r="I81" s="5">
-        <v>0.95</v>
-      </c>
+        <v>426.4</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
       <c r="J81" s="5">
-        <v>1.04</v>
+        <v>0.8</v>
       </c>
       <c r="K81" s="5">
-        <v>22.21</v>
+        <v>3.25</v>
       </c>
       <c r="L81" s="5">
-        <v>11.8</v>
+        <v>0.79</v>
       </c>
       <c r="M81" s="5">
-        <v>1.82</v>
-      </c>
-      <c r="N81" s="5"/>
+        <v>0.35</v>
+      </c>
+      <c r="N81" s="5">
+        <v>0.2</v>
+      </c>
       <c r="O81" s="5">
-        <v>0.17699999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="P81" s="5">
-        <v>4.6500000000000004</v>
+        <v>1.99</v>
       </c>
       <c r="Q81" s="5"/>
       <c r="R81" s="5">
-        <v>4.8000000000000001E-2</v>
+        <v>0.4</v>
       </c>
       <c r="S81" s="5">
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="T81" s="5">
-        <v>0.27600000000000002</v>
-      </c>
-      <c r="U81" s="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="U81" s="5">
+        <v>0.02</v>
+      </c>
       <c r="V81" s="5">
-        <v>0.61399999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="W81" s="5">
-        <v>1.54</v>
-      </c>
-      <c r="X81" s="5"/>
+        <v>1.9</v>
+      </c>
+      <c r="X81" s="5">
+        <v>0.6</v>
+      </c>
       <c r="Y81" s="5"/>
       <c r="Z81" s="5"/>
       <c r="AA81" s="5"/>
@@ -9311,105 +9284,89 @@
       <c r="AK81" s="5"/>
       <c r="AL81" s="5"/>
       <c r="AN81" s="5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AO81" s="5">
-        <v>0</v>
-      </c>
-      <c r="AP81" s="5">
-        <v>1</v>
-      </c>
-      <c r="AQ81" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR81" s="5">
-        <v>0</v>
-      </c>
+        <v>0.5</v>
+      </c>
+      <c r="AP81" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ81" s="5"/>
+      <c r="AR81" s="5"/>
       <c r="AS81" s="5">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="AT81" s="5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AU81" s="5">
         <v>17</v>
       </c>
-      <c r="AV81" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW81" s="5">
-        <v>0</v>
-      </c>
+      <c r="AV81" s="5"/>
+      <c r="AW81" s="5"/>
     </row>
     <row r="82" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A82" s="5">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B82" s="5">
-        <v>42.493559000347659</v>
+        <v>42.491233999999899</v>
       </c>
       <c r="C82" s="5">
-        <v>43.224146000237802</v>
+        <v>43.222617999999898</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E82" s="5">
-        <v>2.15</v>
+        <v>0.08</v>
       </c>
       <c r="F82" s="5">
-        <v>64.62</v>
+        <v>1.24</v>
       </c>
       <c r="G82" s="5">
-        <v>395.4</v>
+        <v>474.5</v>
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
+      <c r="J82" s="5">
+        <v>0.6</v>
+      </c>
       <c r="K82" s="5">
-        <v>127.5</v>
+        <v>2.02</v>
       </c>
       <c r="L82" s="5">
-        <v>10.88</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="M82" s="5">
-        <v>1.56</v>
-      </c>
-      <c r="N82" s="5">
-        <v>0.42</v>
-      </c>
+        <v>1.03</v>
+      </c>
+      <c r="N82" s="5"/>
       <c r="O82" s="5">
-        <v>0.375</v>
+        <v>0.2</v>
       </c>
       <c r="P82" s="5">
-        <v>22.6</v>
-      </c>
-      <c r="Q82" s="5">
-        <v>0.48</v>
-      </c>
+        <v>0.41</v>
+      </c>
+      <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
-      <c r="S82" s="5">
-        <v>0.30599999999999999</v>
-      </c>
+      <c r="S82" s="5"/>
       <c r="T82" s="5">
-        <v>0.19</v>
+        <v>0.5</v>
       </c>
       <c r="U82" s="5"/>
       <c r="V82" s="5">
-        <v>0.36499999999999999</v>
+        <v>0.2</v>
       </c>
       <c r="W82" s="5">
-        <v>1.89</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
       <c r="Z82" s="5"/>
-      <c r="AA82" s="5">
-        <v>0.82</v>
-      </c>
-      <c r="AB82" s="5">
-        <v>0.53100000000000003</v>
-      </c>
+      <c r="AA82" s="5"/>
+      <c r="AB82" s="5"/>
       <c r="AC82" s="5"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
@@ -9423,103 +9380,99 @@
       <c r="AN82" s="5">
         <v>9</v>
       </c>
-      <c r="AO82" s="5">
-        <v>1</v>
-      </c>
-      <c r="AP82" s="5">
-        <v>0</v>
-      </c>
-      <c r="AQ82" s="5">
-        <v>0</v>
-      </c>
-      <c r="AR82" s="5">
-        <v>0</v>
-      </c>
+      <c r="AO82" s="5"/>
+      <c r="AP82" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AQ82" s="5"/>
+      <c r="AR82" s="5"/>
       <c r="AS82" s="5">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="AT82" s="5">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AU82" s="5">
-        <v>19</v>
-      </c>
-      <c r="AV82" s="5">
-        <v>0</v>
-      </c>
-      <c r="AW82" s="5">
-        <v>0</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="AV82" s="5"/>
+      <c r="AW82" s="5"/>
     </row>
     <row r="83" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A83" s="5">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B83" s="5">
-        <v>42.493025000000003</v>
+        <v>42.490803999999898</v>
       </c>
       <c r="C83" s="5">
-        <v>43.224429999999899</v>
+        <v>43.221992</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E83" s="5">
-        <v>0.52</v>
+        <v>0.32</v>
       </c>
       <c r="F83" s="5">
-        <v>3.23</v>
+        <v>7.21</v>
       </c>
       <c r="G83" s="5">
-        <v>463.9</v>
-      </c>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
-      <c r="J83" s="5"/>
+        <v>362</v>
+      </c>
+      <c r="H83" s="5">
+        <v>5.03</v>
+      </c>
+      <c r="I83" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="J83" s="5">
+        <v>7.4999999999999997E-2</v>
+      </c>
       <c r="K83" s="5">
-        <v>5.94</v>
+        <v>9.69</v>
       </c>
       <c r="L83" s="5">
-        <v>0.6</v>
+        <v>17.47</v>
       </c>
       <c r="M83" s="5">
-        <v>0.43</v>
+        <v>2.9</v>
       </c>
       <c r="N83" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O83" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="P83" s="5">
+        <v>4.5</v>
+      </c>
+      <c r="Q83" s="5">
         <v>0.5</v>
       </c>
-      <c r="P83" s="5">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5">
-        <v>0.1</v>
-      </c>
+      <c r="R83" s="5"/>
       <c r="S83" s="5"/>
       <c r="T83" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="U83" s="5"/>
       <c r="V83" s="5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W83" s="5">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="X83" s="5">
         <v>0.9</v>
       </c>
-      <c r="Y83" s="5">
-        <v>0.06</v>
-      </c>
+      <c r="Y83" s="5"/>
       <c r="Z83" s="5"/>
       <c r="AA83" s="5"/>
       <c r="AB83" s="5"/>
       <c r="AC83" s="5"/>
-      <c r="AD83" s="5"/>
+      <c r="AD83" s="5">
+        <v>0.13</v>
+      </c>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
       <c r="AG83" s="5"/>
@@ -9529,19 +9482,21 @@
       <c r="AK83" s="5"/>
       <c r="AL83" s="5"/>
       <c r="AN83" s="5">
-        <v>6</v>
-      </c>
-      <c r="AO83" s="5"/>
+        <v>13</v>
+      </c>
+      <c r="AO83" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="AP83" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AQ83" s="5"/>
       <c r="AR83" s="5"/>
       <c r="AS83" s="5">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="AT83" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU83" s="5">
         <v>14</v>
@@ -9551,50 +9506,58 @@
     </row>
     <row r="84" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A84" s="5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B84" s="5">
-        <v>42.491557999999898</v>
+        <v>42.490485</v>
       </c>
       <c r="C84" s="5">
-        <v>43.223322000000003</v>
+        <v>43.221583000000003</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E84" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="E84" s="5">
+        <v>0.28000000000000003</v>
+      </c>
       <c r="F84" s="5">
-        <v>1.49</v>
+        <v>3.25</v>
       </c>
       <c r="G84" s="5">
-        <v>432.7</v>
+        <v>453.9</v>
       </c>
       <c r="H84" s="5"/>
       <c r="I84" s="5"/>
       <c r="J84" s="5"/>
       <c r="K84" s="5">
-        <v>1.73</v>
+        <v>3.16</v>
       </c>
       <c r="L84" s="5">
-        <v>0.16</v>
+        <v>0.6</v>
       </c>
       <c r="M84" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="N84" s="5"/>
-      <c r="O84" s="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="N84" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O84" s="5">
+        <v>0.2</v>
+      </c>
       <c r="P84" s="5">
-        <v>0.34</v>
+        <v>1.6</v>
       </c>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
-      <c r="S84" s="5"/>
+      <c r="S84" s="5">
+        <v>0.1</v>
+      </c>
       <c r="T84" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U84" s="5"/>
       <c r="V84" s="5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="W84" s="5">
         <v>0.4</v>
@@ -9603,11 +9566,13 @@
       <c r="Y84" s="5"/>
       <c r="Z84" s="5"/>
       <c r="AA84" s="5"/>
-      <c r="AB84" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="AC84" s="5"/>
-      <c r="AD84" s="5"/>
+      <c r="AB84" s="5"/>
+      <c r="AC84" s="5">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AD84" s="5">
+        <v>0.05</v>
+      </c>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
       <c r="AG84" s="5"/>
@@ -9617,202 +9582,182 @@
       <c r="AK84" s="5"/>
       <c r="AL84" s="5"/>
       <c r="AN84" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO84" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AP84" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ84" s="5"/>
       <c r="AR84" s="5"/>
       <c r="AS84" s="5">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AT84" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU84" s="5">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AV84" s="5"/>
       <c r="AW84" s="5"/>
     </row>
     <row r="85" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A85" s="5">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B85" s="5">
-        <v>42.491397999999897</v>
+        <v>42.490665</v>
       </c>
       <c r="C85" s="5">
-        <v>43.223177</v>
+        <v>43.224412999999899</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E85" s="5">
-        <v>3.4000000000000002E-2</v>
+        <v>0.88</v>
       </c>
       <c r="F85" s="5">
-        <v>1.0900000000000001</v>
+        <v>7.11</v>
       </c>
       <c r="G85" s="5">
-        <v>375.4</v>
-      </c>
-      <c r="H85" s="5">
-        <v>0.92</v>
-      </c>
+        <v>453.6</v>
+      </c>
+      <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="5">
-        <v>1.59</v>
+        <v>7.92</v>
       </c>
       <c r="L85" s="5">
-        <v>1.21</v>
+        <v>0.2</v>
       </c>
       <c r="M85" s="5">
-        <v>0.5</v>
+        <v>1.03</v>
       </c>
       <c r="N85" s="5">
         <v>0.1</v>
       </c>
       <c r="O85" s="5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="P85" s="5">
-        <v>0.23</v>
+        <v>3.64</v>
       </c>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
-      <c r="S85" s="5">
-        <v>0.1</v>
-      </c>
+      <c r="S85" s="5"/>
       <c r="T85" s="5">
         <v>0.2</v>
       </c>
-      <c r="U85" s="5">
-        <v>0.03</v>
-      </c>
+      <c r="U85" s="5"/>
       <c r="V85" s="5">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="W85" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="X85" s="5">
-        <v>0.4</v>
-      </c>
+        <v>1.8</v>
+      </c>
+      <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
       <c r="Z85" s="5"/>
       <c r="AA85" s="5"/>
       <c r="AB85" s="5"/>
       <c r="AC85" s="5"/>
-      <c r="AD85" s="5">
-        <v>0.13</v>
-      </c>
+      <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
       <c r="AG85" s="5"/>
       <c r="AH85" s="5"/>
       <c r="AI85" s="5"/>
       <c r="AJ85" s="5"/>
-      <c r="AK85" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="AL85" s="5"/>
+      <c r="AK85" s="5"/>
+      <c r="AL85" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="AN85" s="5">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="AO85" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP85" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AQ85" s="5"/>
       <c r="AR85" s="5"/>
       <c r="AS85" s="5">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="AT85" s="5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AU85" s="5">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AV85" s="5"/>
       <c r="AW85" s="5"/>
     </row>
     <row r="86" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A86" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B86" s="5">
-        <v>42.491610000000001</v>
+        <v>42.490597999999899</v>
       </c>
       <c r="C86" s="5">
-        <v>43.222802999999899</v>
+        <v>43.224366000000003</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E86" s="5">
-        <v>0.28000000000000003</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E86" s="5"/>
       <c r="F86" s="5">
-        <v>2.59</v>
+        <v>0.26</v>
       </c>
       <c r="G86" s="5">
-        <v>426.4</v>
+        <v>418.8</v>
       </c>
       <c r="H86" s="5"/>
       <c r="I86" s="5"/>
-      <c r="J86" s="5">
-        <v>0.8</v>
-      </c>
+      <c r="J86" s="5"/>
       <c r="K86" s="5">
-        <v>3.25</v>
+        <v>0.19</v>
       </c>
       <c r="L86" s="5">
-        <v>0.79</v>
+        <v>0.4</v>
       </c>
       <c r="M86" s="5">
-        <v>0.35</v>
-      </c>
-      <c r="N86" s="5">
         <v>0.2</v>
       </c>
+      <c r="N86" s="5"/>
       <c r="O86" s="5">
         <v>0.1</v>
       </c>
       <c r="P86" s="5">
-        <v>1.99</v>
+        <v>0.8</v>
       </c>
       <c r="Q86" s="5"/>
-      <c r="R86" s="5">
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="W86" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="X86" s="5">
         <v>0.4</v>
       </c>
-      <c r="S86" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="T86" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="U86" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="V86" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="W86" s="5">
-        <v>1.9</v>
-      </c>
-      <c r="X86" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="Y86" s="5"/>
+      <c r="Y86" s="5">
+        <v>0.04</v>
+      </c>
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
       <c r="AB86" s="5"/>
@@ -9827,83 +9772,81 @@
       <c r="AK86" s="5"/>
       <c r="AL86" s="5"/>
       <c r="AN86" s="5">
-        <v>6</v>
-      </c>
-      <c r="AO86" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO86" s="5"/>
+      <c r="AP86" s="5">
         <v>0.5</v>
-      </c>
-      <c r="AP86" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="AQ86" s="5"/>
       <c r="AR86" s="5"/>
       <c r="AS86" s="5">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="AT86" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AU86" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV86" s="5"/>
       <c r="AW86" s="5"/>
     </row>
     <row r="87" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A87" s="5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B87" s="5">
-        <v>42.491233999999899</v>
+        <v>42.490473000000001</v>
       </c>
       <c r="C87" s="5">
-        <v>43.222617999999898</v>
+        <v>43.224142999999899</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E87" s="5">
-        <v>0.08</v>
+        <v>0.47</v>
       </c>
       <c r="F87" s="5">
-        <v>1.24</v>
+        <v>7.48</v>
       </c>
       <c r="G87" s="5">
-        <v>474.5</v>
+        <v>418.7</v>
       </c>
       <c r="H87" s="5"/>
       <c r="I87" s="5"/>
-      <c r="J87" s="5">
-        <v>0.6</v>
-      </c>
+      <c r="J87" s="5"/>
       <c r="K87" s="5">
-        <v>2.02</v>
+        <v>9.17</v>
       </c>
       <c r="L87" s="5">
-        <v>0.28000000000000003</v>
+        <v>0.35</v>
       </c>
       <c r="M87" s="5">
-        <v>1.03</v>
+        <v>0.12</v>
       </c>
       <c r="N87" s="5"/>
       <c r="O87" s="5">
-        <v>0.2</v>
+        <v>1.03</v>
       </c>
       <c r="P87" s="5">
-        <v>0.41</v>
+        <v>1.52</v>
       </c>
       <c r="Q87" s="5"/>
       <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
+      <c r="S87" s="5">
+        <v>0.1</v>
+      </c>
       <c r="T87" s="5">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="U87" s="5"/>
       <c r="V87" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W87" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
@@ -9925,15 +9868,15 @@
       </c>
       <c r="AO87" s="5"/>
       <c r="AP87" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AQ87" s="5"/>
       <c r="AR87" s="5"/>
       <c r="AS87" s="5">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AT87" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU87" s="5">
         <v>16</v>
@@ -9943,79 +9886,65 @@
     </row>
     <row r="88" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A88" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B88" s="5">
-        <v>42.490803999999898</v>
+        <v>42.490479000000001</v>
       </c>
       <c r="C88" s="5">
-        <v>43.221992</v>
+        <v>43.223886</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E88" s="5">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="F88" s="5">
-        <v>7.21</v>
+        <v>2.6</v>
       </c>
       <c r="G88" s="5">
-        <v>362</v>
-      </c>
-      <c r="H88" s="5">
-        <v>5.03</v>
-      </c>
-      <c r="I88" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="J88" s="5">
-        <v>7.4999999999999997E-2</v>
-      </c>
+        <v>455.7</v>
+      </c>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
       <c r="K88" s="5">
-        <v>9.69</v>
+        <v>3.47</v>
       </c>
       <c r="L88" s="5">
-        <v>17.47</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M88" s="5">
-        <v>2.9</v>
-      </c>
-      <c r="N88" s="5">
-        <v>0.3</v>
-      </c>
+        <v>0.59</v>
+      </c>
+      <c r="N88" s="5"/>
       <c r="O88" s="5">
-        <v>1.8</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="P88" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="Q88" s="5">
-        <v>0.5</v>
-      </c>
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="Q88" s="5"/>
       <c r="R88" s="5"/>
       <c r="S88" s="5"/>
       <c r="T88" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="U88" s="5"/>
       <c r="V88" s="5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="W88" s="5">
-        <v>2.1</v>
-      </c>
-      <c r="X88" s="5">
-        <v>0.9</v>
-      </c>
+        <v>2.04</v>
+      </c>
+      <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
       <c r="AB88" s="5"/>
       <c r="AC88" s="5"/>
-      <c r="AD88" s="5">
-        <v>0.13</v>
-      </c>
+      <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
       <c r="AG88" s="5"/>
@@ -10025,97 +9954,91 @@
       <c r="AK88" s="5"/>
       <c r="AL88" s="5"/>
       <c r="AN88" s="5">
-        <v>13</v>
-      </c>
-      <c r="AO88" s="5" t="s">
-        <v>88</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AO88" s="5"/>
       <c r="AP88" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ88" s="5"/>
       <c r="AR88" s="5"/>
       <c r="AS88" s="5">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AT88" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU88" s="5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV88" s="5"/>
       <c r="AW88" s="5"/>
     </row>
     <row r="89" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A89" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B89" s="5">
-        <v>42.490485</v>
+        <v>42.493018999999897</v>
       </c>
       <c r="C89" s="5">
-        <v>43.221583000000003</v>
+        <v>43.223861999999897</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E89" s="5">
-        <v>0.28000000000000003</v>
+        <v>1.93</v>
       </c>
       <c r="F89" s="5">
-        <v>3.25</v>
+        <v>5.96</v>
       </c>
       <c r="G89" s="5">
-        <v>453.9</v>
+        <v>412.3</v>
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
+      <c r="J89" s="5">
+        <v>0.7</v>
+      </c>
       <c r="K89" s="5">
-        <v>3.16</v>
+        <v>7.67</v>
       </c>
       <c r="L89" s="5">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="M89" s="5">
-        <v>0.6</v>
+        <v>1.05</v>
       </c>
       <c r="N89" s="5">
         <v>0.1</v>
       </c>
       <c r="O89" s="5">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="P89" s="5">
-        <v>1.6</v>
+        <v>6.45</v>
       </c>
       <c r="Q89" s="5"/>
       <c r="R89" s="5"/>
-      <c r="S89" s="5">
-        <v>0.1</v>
-      </c>
+      <c r="S89" s="5"/>
       <c r="T89" s="5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="U89" s="5"/>
       <c r="V89" s="5">
         <v>0.4</v>
       </c>
       <c r="W89" s="5">
-        <v>0.4</v>
+        <v>1.02</v>
       </c>
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
       <c r="AB89" s="5"/>
-      <c r="AC89" s="5">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AD89" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="AC89" s="5"/>
+      <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
       <c r="AG89" s="5"/>
@@ -10125,83 +10048,83 @@
       <c r="AK89" s="5"/>
       <c r="AL89" s="5"/>
       <c r="AN89" s="5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO89" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP89" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ89" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="AQ89" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="AR89" s="5"/>
       <c r="AS89" s="5">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AT89" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU89" s="5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AV89" s="5"/>
       <c r="AW89" s="5"/>
     </row>
     <row r="90" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A90" s="5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B90" s="5">
-        <v>42.490665</v>
+        <v>42.490423</v>
       </c>
       <c r="C90" s="5">
-        <v>43.224412999999899</v>
+        <v>43.223751999999898</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E90" s="5">
-        <v>0.88</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E90" s="5"/>
       <c r="F90" s="5">
-        <v>7.11</v>
+        <v>1.21</v>
       </c>
       <c r="G90" s="5">
-        <v>453.6</v>
+        <v>417.85</v>
       </c>
       <c r="H90" s="5"/>
       <c r="I90" s="5"/>
       <c r="J90" s="5"/>
       <c r="K90" s="5">
-        <v>7.92</v>
+        <v>1.06</v>
       </c>
       <c r="L90" s="5">
-        <v>0.2</v>
+        <v>0.39</v>
       </c>
       <c r="M90" s="5">
-        <v>1.03</v>
-      </c>
-      <c r="N90" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5">
         <v>0.1</v>
       </c>
-      <c r="O90" s="5">
-        <v>0.6</v>
-      </c>
       <c r="P90" s="5">
-        <v>3.64</v>
+        <v>0.34</v>
       </c>
       <c r="Q90" s="5"/>
       <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
+      <c r="S90" s="5">
+        <v>0.4</v>
+      </c>
       <c r="T90" s="5">
         <v>0.2</v>
       </c>
       <c r="U90" s="5"/>
       <c r="V90" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="W90" s="5">
         <v>0.5</v>
-      </c>
-      <c r="W90" s="5">
-        <v>1.8</v>
       </c>
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
@@ -10209,102 +10132,100 @@
       <c r="AA90" s="5"/>
       <c r="AB90" s="5"/>
       <c r="AC90" s="5"/>
-      <c r="AD90" s="5"/>
+      <c r="AD90" s="5">
+        <v>0.12</v>
+      </c>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
       <c r="AG90" s="5"/>
       <c r="AH90" s="5"/>
       <c r="AI90" s="5"/>
       <c r="AJ90" s="5"/>
-      <c r="AK90" s="5"/>
-      <c r="AL90" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
+      <c r="AK90" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="AL90" s="5"/>
       <c r="AN90" s="5">
-        <v>15</v>
-      </c>
-      <c r="AO90" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AO90" s="5"/>
       <c r="AP90" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ90" s="5"/>
       <c r="AR90" s="5"/>
       <c r="AS90" s="5">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT90" s="5">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AU90" s="5">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AV90" s="5"/>
       <c r="AW90" s="5"/>
     </row>
     <row r="91" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A91" s="5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B91" s="5">
-        <v>42.490597999999899</v>
+        <v>42.490167999999898</v>
       </c>
       <c r="C91" s="5">
-        <v>43.224366000000003</v>
+        <v>43.2234389999999</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E91" s="5"/>
-      <c r="F91" s="5">
-        <v>0.26</v>
-      </c>
+      <c r="F91" s="5"/>
       <c r="G91" s="5">
-        <v>418.8</v>
+        <v>449.4</v>
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="5"/>
       <c r="J91" s="5"/>
       <c r="K91" s="5">
-        <v>0.19</v>
+        <v>0.64</v>
       </c>
       <c r="L91" s="5">
-        <v>0.4</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M91" s="5">
         <v>0.2</v>
       </c>
       <c r="N91" s="5"/>
-      <c r="O91" s="5">
+      <c r="O91" s="5"/>
+      <c r="P91" s="5">
+        <v>0.37</v>
+      </c>
+      <c r="Q91" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="R91" s="5">
         <v>0.1</v>
       </c>
-      <c r="P91" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
       <c r="S91" s="5"/>
       <c r="T91" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="U91" s="5"/>
       <c r="V91" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W91" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="X91" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="Y91" s="5">
-        <v>0.04</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5"/>
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
       <c r="AB91" s="5"/>
-      <c r="AC91" s="5"/>
+      <c r="AC91" s="5">
+        <v>0.06</v>
+      </c>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
@@ -10315,81 +10236,85 @@
       <c r="AK91" s="5"/>
       <c r="AL91" s="5"/>
       <c r="AN91" s="5">
-        <v>3</v>
-      </c>
-      <c r="AO91" s="5"/>
-      <c r="AP91" s="5">
-        <v>0.5</v>
+        <v>13</v>
+      </c>
+      <c r="AO91" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AP91" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="AQ91" s="5"/>
       <c r="AR91" s="5"/>
       <c r="AS91" s="5">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="AT91" s="5">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AU91" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="AV91" s="5"/>
       <c r="AW91" s="5"/>
     </row>
     <row r="92" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A92" s="5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B92" s="5">
-        <v>42.490473000000001</v>
+        <v>42.490214000000002</v>
       </c>
       <c r="C92" s="5">
-        <v>43.224142999999899</v>
+        <v>43.2232109999999</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E92" s="5">
-        <v>0.47</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E92" s="5"/>
       <c r="F92" s="5">
-        <v>7.48</v>
+        <v>5.72</v>
       </c>
       <c r="G92" s="5">
-        <v>418.7</v>
+        <v>417.8</v>
       </c>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="5">
-        <v>9.17</v>
+        <v>1.28</v>
       </c>
       <c r="L92" s="5">
-        <v>0.35</v>
+        <v>3.43</v>
       </c>
       <c r="M92" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="N92" s="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="N92" s="5">
+        <v>0.5</v>
+      </c>
       <c r="O92" s="5">
-        <v>1.03</v>
+        <v>0.3</v>
       </c>
       <c r="P92" s="5">
-        <v>1.52</v>
+        <v>0.34</v>
       </c>
       <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
+      <c r="R92" s="5">
+        <v>0.3</v>
+      </c>
       <c r="S92" s="5">
         <v>0.1</v>
       </c>
       <c r="T92" s="5">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="U92" s="5"/>
       <c r="V92" s="5">
         <v>0.3</v>
       </c>
       <c r="W92" s="5">
-        <v>1.35</v>
+        <v>0.36</v>
       </c>
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
@@ -10407,68 +10332,68 @@
       <c r="AK92" s="5"/>
       <c r="AL92" s="5"/>
       <c r="AN92" s="5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO92" s="5"/>
       <c r="AP92" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AQ92" s="5"/>
       <c r="AR92" s="5"/>
       <c r="AS92" s="5">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="AT92" s="5">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AU92" s="5">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AV92" s="5"/>
       <c r="AW92" s="5"/>
     </row>
     <row r="93" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A93" s="5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B93" s="5">
-        <v>42.490479000000001</v>
+        <v>42.490208000000003</v>
       </c>
       <c r="C93" s="5">
-        <v>43.223886</v>
+        <v>43.222867000000001</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E93" s="5">
-        <v>0.68</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E93" s="5"/>
       <c r="F93" s="5">
-        <v>2.6</v>
+        <v>5.34</v>
       </c>
       <c r="G93" s="5">
-        <v>455.7</v>
+        <v>428.3</v>
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="5"/>
       <c r="J93" s="5"/>
       <c r="K93" s="5">
-        <v>3.47</v>
+        <v>11.42</v>
       </c>
       <c r="L93" s="5">
-        <v>0.14000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="M93" s="5">
-        <v>0.59</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N93" s="5"/>
       <c r="O93" s="5">
-        <v>1.1100000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="P93" s="5">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="Q93" s="5"/>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="Q93" s="5">
+        <v>0.3</v>
+      </c>
       <c r="R93" s="5"/>
       <c r="S93" s="5"/>
       <c r="T93" s="5">
@@ -10476,7 +10401,7 @@
       </c>
       <c r="U93" s="5"/>
       <c r="V93" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W93" s="5">
         <v>2.04</v>
@@ -10485,8 +10410,12 @@
       <c r="Y93" s="5"/>
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
-      <c r="AB93" s="5"/>
-      <c r="AC93" s="5"/>
+      <c r="AB93" s="5">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="AC93" s="5">
+        <v>0.15</v>
+      </c>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
@@ -10499,83 +10428,87 @@
       <c r="AN93" s="5">
         <v>8</v>
       </c>
-      <c r="AO93" s="5"/>
+      <c r="AO93" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="AP93" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AQ93" s="5"/>
       <c r="AR93" s="5"/>
       <c r="AS93" s="5">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AT93" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AU93" s="5">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AV93" s="5"/>
       <c r="AW93" s="5"/>
     </row>
     <row r="94" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A94" s="5">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B94" s="5">
-        <v>42.493018999999897</v>
+        <v>42.490279999999899</v>
       </c>
       <c r="C94" s="5">
-        <v>43.223861999999897</v>
+        <v>43.222518000000001</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E94" s="5">
-        <v>1.93</v>
+        <v>0.52</v>
       </c>
       <c r="F94" s="5">
-        <v>5.96</v>
+        <v>1.37</v>
       </c>
       <c r="G94" s="5">
-        <v>412.3</v>
+        <v>406.5</v>
       </c>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
-      <c r="J94" s="5">
-        <v>0.7</v>
-      </c>
+      <c r="J94" s="5"/>
       <c r="K94" s="5">
-        <v>7.67</v>
+        <v>0.95</v>
       </c>
       <c r="L94" s="5">
-        <v>0.7</v>
+        <v>0.15</v>
       </c>
       <c r="M94" s="5">
-        <v>1.05</v>
-      </c>
-      <c r="N94" s="5">
-        <v>0.1</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="N94" s="5"/>
       <c r="O94" s="5">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="P94" s="5">
-        <v>6.45</v>
-      </c>
-      <c r="Q94" s="5"/>
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="Q94" s="5">
+        <v>0.6</v>
+      </c>
       <c r="R94" s="5"/>
       <c r="S94" s="5"/>
       <c r="T94" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="U94" s="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="U94" s="5">
+        <v>0.01</v>
+      </c>
       <c r="V94" s="5">
         <v>0.4</v>
       </c>
       <c r="W94" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="X94" s="5"/>
+        <v>0.9</v>
+      </c>
+      <c r="X94" s="5">
+        <v>0.9</v>
+      </c>
       <c r="Y94" s="5"/>
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
@@ -10591,83 +10524,87 @@
       <c r="AK94" s="5"/>
       <c r="AL94" s="5"/>
       <c r="AN94" s="5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO94" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP94" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AQ94" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AQ94" s="5"/>
       <c r="AR94" s="5"/>
       <c r="AS94" s="5">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AT94" s="5">
         <v>7</v>
       </c>
       <c r="AU94" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AV94" s="5"/>
       <c r="AW94" s="5"/>
     </row>
     <row r="95" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A95" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B95" s="5">
-        <v>42.490423</v>
+        <v>42.490420999999898</v>
       </c>
       <c r="C95" s="5">
-        <v>43.223751999999898</v>
+        <v>43.222085999999898</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5">
-        <v>1.21</v>
+        <v>2.73</v>
       </c>
       <c r="G95" s="5">
-        <v>417.85</v>
+        <v>408.3</v>
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
+      <c r="J95" s="5">
+        <v>3.4</v>
+      </c>
       <c r="K95" s="5">
-        <v>1.06</v>
+        <v>2.97</v>
       </c>
       <c r="L95" s="5">
-        <v>0.39</v>
+        <v>0.26</v>
       </c>
       <c r="M95" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="N95" s="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="N95" s="5">
+        <v>0.2</v>
+      </c>
       <c r="O95" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="P95" s="5">
+        <v>1.57</v>
+      </c>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5">
         <v>0.1</v>
       </c>
-      <c r="P95" s="5">
-        <v>0.34</v>
-      </c>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
       <c r="S95" s="5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="T95" s="5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="U95" s="5"/>
       <c r="V95" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="W95" s="5">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
@@ -10675,33 +10612,31 @@
       <c r="AA95" s="5"/>
       <c r="AB95" s="5"/>
       <c r="AC95" s="5"/>
-      <c r="AD95" s="5">
-        <v>0.12</v>
-      </c>
+      <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
       <c r="AG95" s="5"/>
       <c r="AH95" s="5"/>
       <c r="AI95" s="5"/>
       <c r="AJ95" s="5"/>
-      <c r="AK95" s="5">
-        <v>0.05</v>
-      </c>
+      <c r="AK95" s="5"/>
       <c r="AL95" s="5"/>
       <c r="AN95" s="5">
-        <v>8</v>
-      </c>
-      <c r="AO95" s="5"/>
+        <v>5</v>
+      </c>
+      <c r="AO95" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="AP95" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ95" s="5"/>
       <c r="AR95" s="5"/>
       <c r="AS95" s="5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="AT95" s="5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AU95" s="5">
         <v>17</v>
@@ -10711,64 +10646,62 @@
     </row>
     <row r="96" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A96" s="5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B96" s="5">
-        <v>42.490167999999898</v>
+        <v>42.490073000000002</v>
       </c>
       <c r="C96" s="5">
-        <v>43.2234389999999</v>
+        <v>43.221850000000003</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
+      <c r="F96" s="5">
+        <v>6.93</v>
+      </c>
       <c r="G96" s="5">
-        <v>449.4</v>
+        <v>425.8</v>
       </c>
       <c r="H96" s="5"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5">
-        <v>0.64</v>
+        <v>2.48</v>
       </c>
       <c r="L96" s="5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.8</v>
       </c>
       <c r="M96" s="5">
-        <v>0.2</v>
+        <v>3.9</v>
       </c>
       <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
+      <c r="O96" s="5">
+        <v>3.2</v>
+      </c>
       <c r="P96" s="5">
-        <v>0.37</v>
-      </c>
-      <c r="Q96" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="R96" s="5">
-        <v>0.1</v>
-      </c>
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
       <c r="S96" s="5"/>
       <c r="T96" s="5">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="U96" s="5"/>
       <c r="V96" s="5">
         <v>0.3</v>
       </c>
       <c r="W96" s="5">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
       <c r="Z96" s="5"/>
       <c r="AA96" s="5"/>
       <c r="AB96" s="5"/>
-      <c r="AC96" s="5">
-        <v>0.06</v>
-      </c>
+      <c r="AC96" s="5"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
@@ -10779,87 +10712,85 @@
       <c r="AK96" s="5"/>
       <c r="AL96" s="5"/>
       <c r="AN96" s="5">
-        <v>13</v>
-      </c>
-      <c r="AO96" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="AO96" s="5"/>
       <c r="AP96" s="5" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="AQ96" s="5"/>
       <c r="AR96" s="5"/>
       <c r="AS96" s="5">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AT96" s="5">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AU96" s="5">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AV96" s="5"/>
       <c r="AW96" s="5"/>
     </row>
     <row r="97" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B97" s="5">
-        <v>42.490214000000002</v>
+        <v>42.489967999999898</v>
       </c>
       <c r="C97" s="5">
-        <v>43.2232109999999</v>
+        <v>43.221494</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5">
-        <v>5.72</v>
+        <v>3.56</v>
       </c>
       <c r="G97" s="5">
-        <v>417.8</v>
+        <v>447.7</v>
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="5"/>
       <c r="J97" s="5"/>
       <c r="K97" s="5">
-        <v>1.28</v>
+        <v>2.68</v>
       </c>
       <c r="L97" s="5">
-        <v>3.43</v>
+        <v>0.79</v>
       </c>
       <c r="M97" s="5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="N97" s="5">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="O97" s="5">
         <v>0.3</v>
       </c>
       <c r="P97" s="5">
-        <v>0.34</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="Q97" s="5"/>
-      <c r="R97" s="5">
-        <v>0.3</v>
-      </c>
+      <c r="R97" s="5"/>
       <c r="S97" s="5">
         <v>0.1</v>
       </c>
       <c r="T97" s="5">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="U97" s="5"/>
       <c r="V97" s="5">
         <v>0.3</v>
       </c>
       <c r="W97" s="5">
-        <v>0.36</v>
-      </c>
-      <c r="X97" s="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="X97" s="5">
+        <v>0.6</v>
+      </c>
       <c r="Y97" s="5"/>
       <c r="Z97" s="5"/>
       <c r="AA97" s="5"/>
@@ -10872,94 +10803,94 @@
       <c r="AH97" s="5"/>
       <c r="AI97" s="5"/>
       <c r="AJ97" s="5"/>
-      <c r="AK97" s="5"/>
+      <c r="AK97" s="5">
+        <v>0.3</v>
+      </c>
       <c r="AL97" s="5"/>
       <c r="AN97" s="5">
-        <v>10</v>
-      </c>
-      <c r="AO97" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="AO97" s="5" t="s">
+        <v>91</v>
+      </c>
       <c r="AP97" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AQ97" s="5"/>
       <c r="AR97" s="5"/>
       <c r="AS97" s="5">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AT97" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AU97" s="5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AV97" s="5"/>
       <c r="AW97" s="5"/>
     </row>
     <row r="98" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A98" s="5">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B98" s="5">
-        <v>42.490208000000003</v>
+        <v>42.489991000000003</v>
       </c>
       <c r="C98" s="5">
-        <v>43.222867000000001</v>
+        <v>43.22139</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5">
-        <v>5.34</v>
+        <v>5.09</v>
       </c>
       <c r="G98" s="5">
-        <v>428.3</v>
+        <v>424.8</v>
       </c>
       <c r="H98" s="5"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5">
-        <v>11.42</v>
+        <v>7.45</v>
       </c>
       <c r="L98" s="5">
-        <v>0.2</v>
+        <v>2.57</v>
       </c>
       <c r="M98" s="5">
-        <v>1.1000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="N98" s="5"/>
       <c r="O98" s="5">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="P98" s="5">
-        <v>2.4700000000000002</v>
-      </c>
-      <c r="Q98" s="5">
-        <v>0.3</v>
-      </c>
+        <v>3.19</v>
+      </c>
+      <c r="Q98" s="5"/>
       <c r="R98" s="5"/>
       <c r="S98" s="5"/>
       <c r="T98" s="5">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="U98" s="5"/>
       <c r="V98" s="5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W98" s="5">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
       <c r="Z98" s="5"/>
       <c r="AA98" s="5"/>
-      <c r="AB98" s="5">
-        <v>0.20300000000000001</v>
-      </c>
-      <c r="AC98" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="AD98" s="5"/>
+      <c r="AB98" s="5"/>
+      <c r="AC98" s="5"/>
+      <c r="AD98" s="5">
+        <v>0.11</v>
+      </c>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
       <c r="AG98" s="5"/>
@@ -10969,89 +10900,83 @@
       <c r="AK98" s="5"/>
       <c r="AL98" s="5"/>
       <c r="AN98" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AO98" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AP98" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AQ98" s="5"/>
       <c r="AR98" s="5"/>
       <c r="AS98" s="5">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AT98" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AU98" s="5">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV98" s="5"/>
       <c r="AW98" s="5"/>
     </row>
     <row r="99" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A99" s="5">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B99" s="5">
-        <v>42.490279999999899</v>
+        <v>42.489663</v>
       </c>
       <c r="C99" s="5">
-        <v>43.222518000000001</v>
+        <v>43.224527000000002</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E99" s="5">
-        <v>0.52</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E99" s="5"/>
       <c r="F99" s="5">
-        <v>1.37</v>
+        <v>5.03</v>
       </c>
       <c r="G99" s="5">
-        <v>406.5</v>
-      </c>
-      <c r="H99" s="5"/>
+        <v>427.3</v>
+      </c>
+      <c r="H99" s="5">
+        <v>0.9</v>
+      </c>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5">
-        <v>0.95</v>
+        <v>3.68</v>
       </c>
       <c r="L99" s="5">
-        <v>0.15</v>
+        <v>2.9</v>
       </c>
       <c r="M99" s="5">
-        <v>1.2</v>
+        <v>0.81</v>
       </c>
       <c r="N99" s="5"/>
       <c r="O99" s="5">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="P99" s="5">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="Q99" s="5">
-        <v>0.6</v>
-      </c>
+        <v>12.35</v>
+      </c>
+      <c r="Q99" s="5"/>
       <c r="R99" s="5"/>
       <c r="S99" s="5"/>
       <c r="T99" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="U99" s="5">
-        <v>0.01</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="U99" s="5"/>
       <c r="V99" s="5">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="W99" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="X99" s="5">
-        <v>0.9</v>
-      </c>
+        <v>0.6</v>
+      </c>
+      <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
       <c r="Z99" s="5"/>
       <c r="AA99" s="5"/>
@@ -11067,92 +10992,88 @@
       <c r="AK99" s="5"/>
       <c r="AL99" s="5"/>
       <c r="AN99" s="5">
-        <v>13</v>
-      </c>
-      <c r="AO99" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AO99" s="5"/>
       <c r="AP99" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AQ99" s="5"/>
       <c r="AR99" s="5"/>
       <c r="AS99" s="5">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="AT99" s="5">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AU99" s="5">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AV99" s="5"/>
       <c r="AW99" s="5"/>
     </row>
     <row r="100" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A100" s="5">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="B100" s="5">
-        <v>42.490420999999898</v>
+        <v>42.492885000000001</v>
       </c>
       <c r="C100" s="5">
-        <v>43.222085999999898</v>
+        <v>43.223123999999899</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E100" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="E100" s="5">
+        <v>0.63</v>
+      </c>
       <c r="F100" s="5">
-        <v>2.73</v>
+        <v>2.95</v>
       </c>
       <c r="G100" s="5">
-        <v>408.3</v>
+        <v>144.19999999999999</v>
       </c>
       <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5">
-        <v>3.4</v>
-      </c>
+      <c r="I100" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="J100" s="5"/>
       <c r="K100" s="5">
-        <v>2.97</v>
+        <v>0.54</v>
       </c>
       <c r="L100" s="5">
-        <v>0.26</v>
+        <v>0.15</v>
       </c>
       <c r="M100" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="N100" s="5">
-        <v>0.2</v>
-      </c>
+        <v>0.32</v>
+      </c>
+      <c r="N100" s="5"/>
       <c r="O100" s="5">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="P100" s="5">
-        <v>1.57</v>
+        <v>33.93</v>
       </c>
       <c r="Q100" s="5"/>
-      <c r="R100" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="S100" s="5">
-        <v>0.2</v>
-      </c>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
       <c r="T100" s="5">
-        <v>0.5</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="U100" s="5"/>
       <c r="V100" s="5">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="W100" s="5">
-        <v>2.5</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
       <c r="Z100" s="5"/>
-      <c r="AA100" s="5"/>
+      <c r="AA100" s="5">
+        <v>0.9</v>
+      </c>
       <c r="AB100" s="5"/>
       <c r="AC100" s="5"/>
       <c r="AD100" s="5"/>
@@ -11165,66 +11086,70 @@
       <c r="AK100" s="5"/>
       <c r="AL100" s="5"/>
       <c r="AN100" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AO100" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AP100" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AQ100" s="5"/>
       <c r="AR100" s="5"/>
       <c r="AS100" s="5">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AT100" s="5">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AU100" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV100" s="5"/>
       <c r="AW100" s="5"/>
     </row>
     <row r="101" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A101" s="5">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B101" s="5">
-        <v>42.490073000000002</v>
+        <v>42.4893369999999</v>
       </c>
       <c r="C101" s="5">
-        <v>43.221850000000003</v>
+        <v>43.223858</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E101" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="E101" s="5">
+        <v>1.59</v>
+      </c>
       <c r="F101" s="5">
-        <v>6.93</v>
+        <v>6.42</v>
       </c>
       <c r="G101" s="5">
-        <v>425.8</v>
+        <v>415.03</v>
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5">
-        <v>2.48</v>
+        <v>5.62</v>
       </c>
       <c r="L101" s="5">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="M101" s="5">
-        <v>3.9</v>
-      </c>
-      <c r="N101" s="5"/>
+        <v>1.06</v>
+      </c>
+      <c r="N101" s="5">
+        <v>0.3</v>
+      </c>
       <c r="O101" s="5">
-        <v>3.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="P101" s="5">
-        <v>2.2599999999999998</v>
+        <v>7.05</v>
       </c>
       <c r="Q101" s="5"/>
       <c r="R101" s="5"/>
@@ -11234,15 +11159,17 @@
       </c>
       <c r="U101" s="5"/>
       <c r="V101" s="5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="W101" s="5">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
       <c r="Z101" s="5"/>
-      <c r="AA101" s="5"/>
+      <c r="AA101" s="5">
+        <v>0.6</v>
+      </c>
       <c r="AB101" s="5"/>
       <c r="AC101" s="5"/>
       <c r="AD101" s="5"/>
@@ -11255,85 +11182,83 @@
       <c r="AK101" s="5"/>
       <c r="AL101" s="5"/>
       <c r="AN101" s="5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO101" s="5"/>
       <c r="AP101" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AQ101" s="5"/>
       <c r="AR101" s="5"/>
       <c r="AS101" s="5">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="AT101" s="5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AU101" s="5">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AV101" s="5"/>
       <c r="AW101" s="5"/>
     </row>
     <row r="102" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A102" s="5">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B102" s="5">
-        <v>42.489967999999898</v>
+        <v>42.488912999999897</v>
       </c>
       <c r="C102" s="5">
-        <v>43.221494</v>
+        <v>43.223143</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5">
-        <v>3.56</v>
+        <v>1.99</v>
       </c>
       <c r="G102" s="5">
-        <v>447.7</v>
+        <v>415.1</v>
       </c>
       <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
+      <c r="I102" s="5">
+        <v>1.4</v>
+      </c>
       <c r="J102" s="5"/>
       <c r="K102" s="5">
-        <v>2.68</v>
+        <v>3.3</v>
       </c>
       <c r="L102" s="5">
-        <v>0.79</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="M102" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="N102" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="P102" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="Q102" s="5">
         <v>0.3</v>
       </c>
-      <c r="O102" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="P102" s="5">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="Q102" s="5"/>
       <c r="R102" s="5"/>
-      <c r="S102" s="5">
-        <v>0.1</v>
-      </c>
+      <c r="S102" s="5"/>
       <c r="T102" s="5">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="U102" s="5"/>
       <c r="V102" s="5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W102" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="X102" s="5">
-        <v>0.6</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
       <c r="Z102" s="5"/>
       <c r="AA102" s="5"/>
@@ -11341,99 +11266,107 @@
       <c r="AC102" s="5"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
-      <c r="AF102" s="5"/>
+      <c r="AF102" s="5">
+        <v>0.7</v>
+      </c>
       <c r="AG102" s="5"/>
       <c r="AH102" s="5"/>
       <c r="AI102" s="5"/>
       <c r="AJ102" s="5"/>
-      <c r="AK102" s="5">
-        <v>0.3</v>
-      </c>
+      <c r="AK102" s="5"/>
       <c r="AL102" s="5"/>
       <c r="AN102" s="5">
-        <v>9</v>
-      </c>
-      <c r="AO102" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="AO102" s="5"/>
       <c r="AP102" s="5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AQ102" s="5"/>
       <c r="AR102" s="5"/>
       <c r="AS102" s="5">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AT102" s="5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU102" s="5">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AV102" s="5"/>
       <c r="AW102" s="5"/>
     </row>
     <row r="103" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A103" s="5">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B103" s="5">
-        <v>42.489991000000003</v>
+        <v>42.488799</v>
       </c>
       <c r="C103" s="5">
-        <v>43.22139</v>
+        <v>43.222403</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E103" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="E103" s="5">
+        <v>0.38</v>
+      </c>
       <c r="F103" s="5">
-        <v>5.09</v>
+        <v>4.42</v>
       </c>
       <c r="G103" s="5">
-        <v>424.8</v>
+        <v>414.3</v>
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5">
-        <v>7.45</v>
+        <v>2.7</v>
       </c>
       <c r="L103" s="5">
-        <v>2.57</v>
+        <v>0.17</v>
       </c>
       <c r="M103" s="5">
-        <v>0.72</v>
-      </c>
-      <c r="N103" s="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="N103" s="5">
+        <v>0.13</v>
+      </c>
       <c r="O103" s="5">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="P103" s="5">
-        <v>3.19</v>
+        <v>3.32</v>
       </c>
       <c r="Q103" s="5"/>
       <c r="R103" s="5"/>
       <c r="S103" s="5"/>
       <c r="T103" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="U103" s="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="U103" s="5">
+        <v>0.06</v>
+      </c>
       <c r="V103" s="5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="W103" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="X103" s="5"/>
+        <v>0.3</v>
+      </c>
+      <c r="X103" s="5">
+        <v>0.3</v>
+      </c>
       <c r="Y103" s="5"/>
       <c r="Z103" s="5"/>
-      <c r="AA103" s="5"/>
+      <c r="AA103" s="5">
+        <v>0.45</v>
+      </c>
       <c r="AB103" s="5"/>
-      <c r="AC103" s="5"/>
-      <c r="AD103" s="5">
-        <v>0.11</v>
-      </c>
+      <c r="AC103" s="5">
+        <v>0.12</v>
+      </c>
+      <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
       <c r="AG103" s="5"/>
@@ -11443,87 +11376,91 @@
       <c r="AK103" s="5"/>
       <c r="AL103" s="5"/>
       <c r="AN103" s="5">
-        <v>15</v>
-      </c>
-      <c r="AO103" s="5" t="s">
-        <v>92</v>
+        <v>10</v>
+      </c>
+      <c r="AO103" s="5">
+        <v>0.5</v>
       </c>
       <c r="AP103" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AQ103" s="5"/>
       <c r="AR103" s="5"/>
       <c r="AS103" s="5">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="AT103" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AU103" s="5">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AV103" s="5"/>
       <c r="AW103" s="5"/>
     </row>
     <row r="104" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A104" s="5">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B104" s="5">
-        <v>42.489663</v>
+        <v>42.488987000000002</v>
       </c>
       <c r="C104" s="5">
-        <v>43.224527000000002</v>
+        <v>43.221767</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E104" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="E104" s="5">
+        <v>0.12</v>
+      </c>
       <c r="F104" s="5">
-        <v>5.03</v>
+        <v>3.95</v>
       </c>
       <c r="G104" s="5">
-        <v>427.3</v>
-      </c>
-      <c r="H104" s="5">
-        <v>0.9</v>
-      </c>
+        <v>416.2</v>
+      </c>
+      <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="5">
-        <v>3.68</v>
+        <v>2.62</v>
       </c>
       <c r="L104" s="5">
-        <v>2.9</v>
+        <v>0.12</v>
       </c>
       <c r="M104" s="5">
-        <v>0.81</v>
-      </c>
-      <c r="N104" s="5"/>
+        <v>0.11</v>
+      </c>
+      <c r="N104" s="5">
+        <v>0.3</v>
+      </c>
       <c r="O104" s="5">
-        <v>2.1</v>
+        <v>1.72</v>
       </c>
       <c r="P104" s="5">
-        <v>12.35</v>
+        <v>4.12</v>
       </c>
       <c r="Q104" s="5"/>
       <c r="R104" s="5"/>
       <c r="S104" s="5"/>
       <c r="T104" s="5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="U104" s="5"/>
       <c r="V104" s="5">
         <v>0.3</v>
       </c>
       <c r="W104" s="5">
-        <v>0.6</v>
+        <v>3.05</v>
       </c>
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
       <c r="Z104" s="5"/>
       <c r="AA104" s="5"/>
-      <c r="AB104" s="5"/>
+      <c r="AB104" s="5">
+        <v>0.15</v>
+      </c>
       <c r="AC104" s="5"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
@@ -11535,19 +11472,21 @@
       <c r="AK104" s="5"/>
       <c r="AL104" s="5"/>
       <c r="AN104" s="5">
-        <v>9</v>
-      </c>
-      <c r="AO104" s="5"/>
+        <v>12</v>
+      </c>
+      <c r="AO104" s="5">
+        <v>0.5</v>
+      </c>
       <c r="AP104" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AQ104" s="5"/>
       <c r="AR104" s="5"/>
       <c r="AS104" s="5">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="AT104" s="5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU104" s="5">
         <v>17</v>
@@ -11557,65 +11496,69 @@
     </row>
     <row r="105" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A105" s="5">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="B105" s="5">
-        <v>42.492885000000001</v>
+        <v>42.489550000000001</v>
       </c>
       <c r="C105" s="5">
-        <v>43.223123999999899</v>
+        <v>43.222591999999899</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E105" s="5">
-        <v>0.63</v>
+        <v>0.15</v>
       </c>
       <c r="F105" s="5">
-        <v>2.95</v>
+        <v>3.81</v>
       </c>
       <c r="G105" s="5">
-        <v>144.19999999999999</v>
+        <v>398.9</v>
       </c>
       <c r="H105" s="5"/>
-      <c r="I105" s="5">
-        <v>1.6</v>
-      </c>
+      <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="5">
-        <v>0.54</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="L105" s="5">
-        <v>0.15</v>
+        <v>0.8</v>
       </c>
       <c r="M105" s="5">
-        <v>0.32</v>
-      </c>
-      <c r="N105" s="5"/>
+        <v>1.42</v>
+      </c>
+      <c r="N105" s="5">
+        <v>0.3</v>
+      </c>
       <c r="O105" s="5">
-        <v>2.4</v>
+        <v>0.2</v>
       </c>
       <c r="P105" s="5">
-        <v>33.93</v>
+        <v>1.28</v>
       </c>
       <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
+      <c r="R105" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="S105" s="5">
+        <v>0.1</v>
+      </c>
       <c r="T105" s="5">
-        <v>4.4000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="U105" s="5"/>
       <c r="V105" s="5">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="W105" s="5">
-        <v>1.1000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
       <c r="Z105" s="5"/>
       <c r="AA105" s="5">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="AB105" s="5"/>
       <c r="AC105" s="5"/>
@@ -11625,95 +11568,105 @@
       <c r="AG105" s="5"/>
       <c r="AH105" s="5"/>
       <c r="AI105" s="5"/>
-      <c r="AJ105" s="5"/>
+      <c r="AJ105" s="5">
+        <v>0.5</v>
+      </c>
       <c r="AK105" s="5"/>
       <c r="AL105" s="5"/>
       <c r="AN105" s="5">
-        <v>8</v>
-      </c>
-      <c r="AO105" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="AO105" s="5"/>
       <c r="AP105" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AQ105" s="5"/>
       <c r="AR105" s="5"/>
       <c r="AS105" s="5">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="AT105" s="5">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AU105" s="5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AV105" s="5"/>
       <c r="AW105" s="5"/>
     </row>
     <row r="106" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A106" s="5">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="B106" s="5">
-        <v>42.4893369999999</v>
+        <v>42.49259</v>
       </c>
       <c r="C106" s="5">
-        <v>43.223858</v>
+        <v>43.222206</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E106" s="5">
-        <v>1.59</v>
+        <v>0.25</v>
       </c>
       <c r="F106" s="5">
-        <v>6.42</v>
+        <v>1.04</v>
       </c>
       <c r="G106" s="5">
-        <v>415.03</v>
+        <v>317.10000000000002</v>
       </c>
       <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
+      <c r="I106" s="5">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="J106" s="5">
+        <v>7.5999999999999998E-2</v>
+      </c>
       <c r="K106" s="5">
-        <v>5.62</v>
+        <v>1.04</v>
       </c>
       <c r="L106" s="5">
-        <v>1.17</v>
+        <v>0.17</v>
       </c>
       <c r="M106" s="5">
-        <v>1.06</v>
-      </c>
-      <c r="N106" s="5">
-        <v>0.3</v>
-      </c>
+        <v>0.11</v>
+      </c>
+      <c r="N106" s="5"/>
       <c r="O106" s="5">
-        <v>2.2999999999999998</v>
+        <v>0.1</v>
       </c>
       <c r="P106" s="5">
-        <v>7.05</v>
+        <v>2.36</v>
       </c>
       <c r="Q106" s="5"/>
       <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
+      <c r="S106" s="5">
+        <v>0.15</v>
+      </c>
       <c r="T106" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="U106" s="5"/>
+        <v>0.22</v>
+      </c>
+      <c r="U106" s="5">
+        <v>0.01</v>
+      </c>
       <c r="V106" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="W106" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="X106" s="5"/>
-      <c r="Y106" s="5"/>
+        <v>0.6</v>
+      </c>
+      <c r="X106" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="Y106" s="5">
+        <v>0.08</v>
+      </c>
       <c r="Z106" s="5"/>
-      <c r="AA106" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="AB106" s="5"/>
+      <c r="AA106" s="5"/>
+      <c r="AB106" s="5">
+        <v>0.06</v>
+      </c>
       <c r="AC106" s="5"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
@@ -11723,95 +11676,109 @@
       <c r="AI106" s="5"/>
       <c r="AJ106" s="5"/>
       <c r="AK106" s="5"/>
-      <c r="AL106" s="5"/>
+      <c r="AL106" s="5">
+        <v>0.11</v>
+      </c>
       <c r="AN106" s="5">
-        <v>6</v>
-      </c>
-      <c r="AO106" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="AO106" s="5">
+        <v>0.5</v>
+      </c>
       <c r="AP106" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AQ106" s="5"/>
       <c r="AR106" s="5"/>
       <c r="AS106" s="5">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="AT106" s="5">
         <v>8</v>
       </c>
       <c r="AU106" s="5">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AV106" s="5"/>
       <c r="AW106" s="5"/>
     </row>
     <row r="107" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A107" s="5">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B107" s="5">
-        <v>42.488912999999897</v>
+        <v>42.4916079999999</v>
       </c>
       <c r="C107" s="5">
-        <v>43.223143</v>
+        <v>43.221514999999897</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E107" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="E107" s="5">
+        <v>0.25</v>
+      </c>
       <c r="F107" s="5">
-        <v>1.99</v>
+        <v>5.55</v>
       </c>
       <c r="G107" s="5">
-        <v>415.1</v>
+        <v>423.2</v>
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="J107" s="5"/>
+        <v>0.13</v>
+      </c>
+      <c r="J107" s="5">
+        <v>0.14000000000000001</v>
+      </c>
       <c r="K107" s="5">
-        <v>3.3</v>
+        <v>7.17</v>
       </c>
       <c r="L107" s="5">
-        <v>0.28999999999999998</v>
+        <v>0.39</v>
       </c>
       <c r="M107" s="5">
-        <v>1.1000000000000001</v>
+        <v>1.68</v>
       </c>
       <c r="N107" s="5"/>
       <c r="O107" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="P107" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5">
         <v>0.2</v>
       </c>
-      <c r="P107" s="5">
-        <v>1.4</v>
-      </c>
-      <c r="Q107" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
+      <c r="S107" s="5">
+        <v>0.107</v>
+      </c>
       <c r="T107" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="U107" s="5"/>
+      <c r="V107" s="5"/>
+      <c r="W107" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="X107" s="5">
         <v>0.6</v>
       </c>
-      <c r="U107" s="5"/>
-      <c r="V107" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="W107" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="X107" s="5"/>
-      <c r="Y107" s="5"/>
+      <c r="Y107" s="5">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="Z107" s="5"/>
       <c r="AA107" s="5"/>
       <c r="AB107" s="5"/>
-      <c r="AC107" s="5"/>
-      <c r="AD107" s="5"/>
+      <c r="AC107" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AD107" s="5">
+        <v>0.08</v>
+      </c>
       <c r="AE107" s="5"/>
-      <c r="AF107" s="5">
-        <v>0.7</v>
-      </c>
+      <c r="AF107" s="5"/>
       <c r="AG107" s="5"/>
       <c r="AH107" s="5"/>
       <c r="AI107" s="5"/>
@@ -11819,96 +11786,98 @@
       <c r="AK107" s="5"/>
       <c r="AL107" s="5"/>
       <c r="AN107" s="5">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AO107" s="5"/>
       <c r="AP107" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AQ107" s="5"/>
       <c r="AR107" s="5"/>
       <c r="AS107" s="5">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AT107" s="5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AU107" s="5">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="AV107" s="5"/>
       <c r="AW107" s="5"/>
     </row>
     <row r="108" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A108" s="5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B108" s="5">
-        <v>42.488799</v>
+        <v>42.492139000000002</v>
       </c>
       <c r="C108" s="5">
-        <v>43.222403</v>
+        <v>43.224356999999898</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E108" s="5">
-        <v>0.38</v>
+        <v>0.41</v>
       </c>
       <c r="F108" s="5">
-        <v>4.42</v>
+        <v>6.87</v>
       </c>
       <c r="G108" s="5">
-        <v>414.3</v>
+        <v>377.6</v>
       </c>
       <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
-      <c r="J108" s="5"/>
+      <c r="I108" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="J108" s="5">
+        <v>0.2</v>
+      </c>
       <c r="K108" s="5">
-        <v>2.7</v>
+        <v>8.59</v>
       </c>
       <c r="L108" s="5">
-        <v>0.17</v>
+        <v>1.26</v>
       </c>
       <c r="M108" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="N108" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="O108" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="P108" s="5">
+        <v>2.97</v>
+      </c>
+      <c r="Q108" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="R108" s="5"/>
+      <c r="S108" s="5">
         <v>0.2</v>
       </c>
-      <c r="N108" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="O108" s="5">
-        <v>1.02</v>
-      </c>
-      <c r="P108" s="5">
-        <v>3.32</v>
-      </c>
-      <c r="Q108" s="5"/>
-      <c r="R108" s="5"/>
-      <c r="S108" s="5"/>
       <c r="T108" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="U108" s="5"/>
+      <c r="V108" s="5">
         <v>0.5</v>
       </c>
-      <c r="U108" s="5">
-        <v>0.06</v>
-      </c>
-      <c r="V108" s="5">
-        <v>0.2</v>
-      </c>
       <c r="W108" s="5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="X108" s="5">
-        <v>0.3</v>
+        <v>0.11</v>
       </c>
       <c r="Y108" s="5"/>
       <c r="Z108" s="5"/>
-      <c r="AA108" s="5">
-        <v>0.45</v>
-      </c>
+      <c r="AA108" s="5"/>
       <c r="AB108" s="5"/>
-      <c r="AC108" s="5">
-        <v>0.12</v>
-      </c>
+      <c r="AC108" s="5"/>
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
@@ -11919,91 +11888,91 @@
       <c r="AK108" s="5"/>
       <c r="AL108" s="5"/>
       <c r="AN108" s="5">
-        <v>10</v>
-      </c>
-      <c r="AO108" s="5">
-        <v>0.5</v>
+        <v>9</v>
+      </c>
+      <c r="AO108" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="AP108" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="AQ108" s="5"/>
       <c r="AR108" s="5"/>
       <c r="AS108" s="5">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="AT108" s="5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AU108" s="5">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AV108" s="5"/>
       <c r="AW108" s="5"/>
     </row>
     <row r="109" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A109" s="5">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="B109" s="5">
-        <v>42.488987000000002</v>
+        <v>42.491627999999899</v>
       </c>
       <c r="C109" s="5">
-        <v>43.221767</v>
+        <v>43.224062000000004</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E109" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="F109" s="5">
-        <v>3.95</v>
-      </c>
+        <v>0.38</v>
+      </c>
+      <c r="F109" s="5"/>
       <c r="G109" s="5">
-        <v>416.2</v>
+        <v>473.2</v>
       </c>
       <c r="H109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
       <c r="K109" s="5">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="L109" s="5">
+        <v>0.41</v>
+      </c>
+      <c r="M109" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5">
+        <v>0.17</v>
+      </c>
+      <c r="P109" s="5">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="Q109" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="R109" s="5">
         <v>0.12</v>
       </c>
-      <c r="M109" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="N109" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="O109" s="5">
-        <v>1.72</v>
-      </c>
-      <c r="P109" s="5">
-        <v>4.12</v>
-      </c>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
+      <c r="S109" s="5">
+        <v>0.2</v>
+      </c>
       <c r="T109" s="5">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="U109" s="5"/>
       <c r="V109" s="5">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="W109" s="5">
-        <v>3.05</v>
+        <v>0.7</v>
       </c>
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
       <c r="Z109" s="5"/>
       <c r="AA109" s="5"/>
-      <c r="AB109" s="5">
-        <v>0.15</v>
-      </c>
+      <c r="AB109" s="5"/>
       <c r="AC109" s="5"/>
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
@@ -12015,94 +11984,96 @@
       <c r="AK109" s="5"/>
       <c r="AL109" s="5"/>
       <c r="AN109" s="5">
-        <v>12</v>
-      </c>
-      <c r="AO109" s="5">
-        <v>0.5</v>
+        <v>9</v>
+      </c>
+      <c r="AO109" s="5" t="s">
+        <v>87</v>
       </c>
       <c r="AP109" s="5" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="AQ109" s="5"/>
       <c r="AR109" s="5"/>
       <c r="AS109" s="5">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="AT109" s="5">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AU109" s="5">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AV109" s="5"/>
       <c r="AW109" s="5"/>
     </row>
     <row r="110" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A110" s="5">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B110" s="5">
-        <v>42.489550000000001</v>
+        <v>42.491681</v>
       </c>
       <c r="C110" s="5">
-        <v>43.222591999999899</v>
+        <v>43.223903999999898</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E110" s="5">
-        <v>0.15</v>
+        <v>1.04</v>
       </c>
       <c r="F110" s="5">
-        <v>3.81</v>
+        <v>6.73</v>
       </c>
       <c r="G110" s="5">
-        <v>398.9</v>
+        <v>351.3</v>
       </c>
       <c r="H110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
       <c r="K110" s="5">
-        <v>9.3699999999999992</v>
+        <v>7.43</v>
       </c>
       <c r="L110" s="5">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="M110" s="5">
-        <v>1.42</v>
-      </c>
-      <c r="N110" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="P110" s="5">
+        <v>2.87</v>
+      </c>
+      <c r="Q110" s="5">
         <v>0.3</v>
       </c>
-      <c r="O110" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="P110" s="5">
-        <v>1.28</v>
-      </c>
-      <c r="Q110" s="5"/>
       <c r="R110" s="5">
         <v>0.1</v>
       </c>
       <c r="S110" s="5">
-        <v>0.1</v>
+        <v>5.5E-2</v>
       </c>
       <c r="T110" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="U110" s="5"/>
       <c r="V110" s="5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="W110" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="X110" s="5"/>
-      <c r="Y110" s="5"/>
+        <v>1.7</v>
+      </c>
+      <c r="X110" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="Y110" s="5">
+        <v>0.1</v>
+      </c>
       <c r="Z110" s="5"/>
-      <c r="AA110" s="5">
-        <v>0.6</v>
-      </c>
+      <c r="AA110" s="5"/>
       <c r="AB110" s="5"/>
       <c r="AC110" s="5"/>
       <c r="AD110" s="5"/>
@@ -12111,107 +12082,99 @@
       <c r="AG110" s="5"/>
       <c r="AH110" s="5"/>
       <c r="AI110" s="5"/>
-      <c r="AJ110" s="5">
-        <v>0.5</v>
-      </c>
+      <c r="AJ110" s="5"/>
       <c r="AK110" s="5"/>
       <c r="AL110" s="5"/>
       <c r="AN110" s="5">
-        <v>9</v>
-      </c>
-      <c r="AO110" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="AO110" s="5">
+        <v>0.5</v>
+      </c>
       <c r="AP110" s="5" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AQ110" s="5"/>
       <c r="AR110" s="5"/>
       <c r="AS110" s="5">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AT110" s="5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AU110" s="5">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV110" s="5"/>
       <c r="AW110" s="5"/>
     </row>
     <row r="111" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A111" s="5">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B111" s="5">
-        <v>42.49259</v>
+        <v>42.491481</v>
       </c>
       <c r="C111" s="5">
-        <v>43.222206</v>
+        <v>43.223615000000002</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E111" s="5">
-        <v>0.25</v>
+        <v>0.31</v>
       </c>
       <c r="F111" s="5">
-        <v>1.04</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G111" s="5">
-        <v>317.10000000000002</v>
+        <v>459.2</v>
       </c>
       <c r="H111" s="5"/>
-      <c r="I111" s="5">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="J111" s="5">
-        <v>7.5999999999999998E-2</v>
-      </c>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
       <c r="K111" s="5">
-        <v>1.04</v>
+        <v>2.88</v>
       </c>
       <c r="L111" s="5">
-        <v>0.17</v>
+        <v>0.47</v>
       </c>
       <c r="M111" s="5">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="N111" s="5"/>
       <c r="O111" s="5">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="P111" s="5">
-        <v>2.36</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="Q111" s="5"/>
       <c r="R111" s="5"/>
-      <c r="S111" s="5">
-        <v>0.15</v>
-      </c>
+      <c r="S111" s="5"/>
       <c r="T111" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="U111" s="5">
-        <v>0.01</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="U111" s="5"/>
       <c r="V111" s="5">
         <v>0.3</v>
       </c>
       <c r="W111" s="5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="X111" s="5">
         <v>0.4</v>
       </c>
       <c r="Y111" s="5">
-        <v>0.08</v>
+        <v>0.9</v>
       </c>
       <c r="Z111" s="5"/>
       <c r="AA111" s="5"/>
-      <c r="AB111" s="5">
-        <v>0.06</v>
-      </c>
+      <c r="AB111" s="5"/>
       <c r="AC111" s="5"/>
-      <c r="AD111" s="5"/>
+      <c r="AD111" s="5">
+        <v>0.7</v>
+      </c>
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
       <c r="AG111" s="5"/>
@@ -12219,1076 +12182,570 @@
       <c r="AI111" s="5"/>
       <c r="AJ111" s="5"/>
       <c r="AK111" s="5"/>
-      <c r="AL111" s="5">
-        <v>0.11</v>
-      </c>
+      <c r="AL111" s="5"/>
       <c r="AN111" s="5">
-        <v>10</v>
-      </c>
-      <c r="AO111" s="5">
-        <v>0.5</v>
+        <v>4</v>
+      </c>
+      <c r="AO111" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="AP111" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="AQ111" s="5"/>
       <c r="AR111" s="5"/>
       <c r="AS111" s="5">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="AT111" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU111" s="5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV111" s="5"/>
       <c r="AW111" s="5"/>
     </row>
     <row r="112" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A112" s="5">
-        <v>5</v>
-      </c>
-      <c r="B112" s="5">
-        <v>42.4916079999999</v>
-      </c>
-      <c r="C112" s="5">
-        <v>43.221514999999897</v>
+      <c r="A112" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112">
+        <v>42.492564000000002</v>
+      </c>
+      <c r="C112">
+        <v>43.221874999999997</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E112" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="F112" s="5">
-        <v>5.55</v>
-      </c>
-      <c r="G112" s="5">
-        <v>423.2</v>
-      </c>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="J112" s="5">
+        <v>104</v>
+      </c>
+      <c r="E112" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F112" s="7">
+        <v>8.61</v>
+      </c>
+      <c r="G112" s="7">
+        <v>248.4</v>
+      </c>
+      <c r="H112" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="K112" s="5">
-        <v>7.17</v>
-      </c>
-      <c r="L112" s="5">
-        <v>0.39</v>
-      </c>
-      <c r="M112" s="5">
-        <v>1.68</v>
-      </c>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5">
+      <c r="I112" s="7">
+        <v>0.16</v>
+      </c>
+      <c r="J112" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K112" s="7">
+        <v>7.42</v>
+      </c>
+      <c r="L112" s="7">
+        <v>0.63</v>
+      </c>
+      <c r="M112" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="N112" s="7">
         <v>0.3</v>
       </c>
-      <c r="P112" s="5">
-        <v>1.8</v>
-      </c>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="S112" s="5">
-        <v>0.107</v>
-      </c>
-      <c r="T112" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="U112" s="5"/>
-      <c r="V112" s="5"/>
-      <c r="W112" s="5">
+      <c r="O112" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="P112" s="7">
+        <v>2.34</v>
+      </c>
+      <c r="Q112" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="R112" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="S112" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="T112" s="7">
         <v>1.2</v>
       </c>
-      <c r="X112" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="Y112" s="5">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Z112" s="5"/>
-      <c r="AA112" s="5"/>
-      <c r="AB112" s="5"/>
-      <c r="AC112" s="5">
+      <c r="U112" s="7"/>
+      <c r="V112" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="W112" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="X112" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="Y112" s="7"/>
+      <c r="Z112" s="7"/>
+      <c r="AA112" s="7"/>
+      <c r="AB112" s="7"/>
+      <c r="AC112" s="7">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AD112" s="5">
-        <v>0.08</v>
-      </c>
+      <c r="AD112" s="7"/>
       <c r="AE112" s="5"/>
-      <c r="AF112" s="5"/>
+      <c r="AF112" s="7"/>
       <c r="AG112" s="5"/>
       <c r="AH112" s="5"/>
       <c r="AI112" s="5"/>
       <c r="AJ112" s="5"/>
-      <c r="AK112" s="5"/>
-      <c r="AL112" s="5"/>
-      <c r="AN112" s="5">
-        <v>10</v>
-      </c>
-      <c r="AO112" s="5"/>
-      <c r="AP112" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ112" s="5"/>
-      <c r="AR112" s="5"/>
-      <c r="AS112" s="5">
+      <c r="AK112" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="AL112" s="7"/>
+      <c r="AN112">
+        <v>18</v>
+      </c>
+      <c r="AO112">
+        <v>0</v>
+      </c>
+      <c r="AP112">
+        <v>1</v>
+      </c>
+      <c r="AQ112">
+        <v>0</v>
+      </c>
+      <c r="AS112">
         <v>60</v>
       </c>
-      <c r="AT112" s="5">
-        <v>10</v>
-      </c>
-      <c r="AU112" s="5">
-        <v>18</v>
-      </c>
-      <c r="AV112" s="5"/>
+      <c r="AT112">
+        <v>5</v>
+      </c>
+      <c r="AU112">
+        <v>16</v>
+      </c>
+      <c r="AV112">
+        <v>0</v>
+      </c>
       <c r="AW112" s="5"/>
     </row>
     <row r="113" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A113" s="5">
-        <v>6</v>
-      </c>
-      <c r="B113" s="5">
-        <v>42.492139000000002</v>
-      </c>
-      <c r="C113" s="5">
-        <v>43.224356999999898</v>
+      <c r="A113" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B113">
+        <v>42.490668999999897</v>
+      </c>
+      <c r="C113">
+        <v>43.220964000000002</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E113" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="F113" s="5">
-        <v>6.87</v>
-      </c>
-      <c r="G113" s="5">
-        <v>377.6</v>
-      </c>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="J113" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="K113" s="5">
-        <v>8.59</v>
-      </c>
-      <c r="L113" s="5">
-        <v>1.26</v>
-      </c>
-      <c r="M113" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="N113" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="O113" s="5">
+        <v>104</v>
+      </c>
+      <c r="E113" s="7">
+        <v>0.72</v>
+      </c>
+      <c r="F113" s="7">
+        <v>10.58</v>
+      </c>
+      <c r="G113" s="7">
+        <v>264.5</v>
+      </c>
+      <c r="H113" s="7"/>
+      <c r="I113" s="7"/>
+      <c r="J113" s="7">
+        <v>0.46</v>
+      </c>
+      <c r="K113" s="7">
+        <v>8.82</v>
+      </c>
+      <c r="L113" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="M113" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="N113" s="7">
         <v>0.4</v>
       </c>
-      <c r="P113" s="5">
-        <v>2.97</v>
-      </c>
-      <c r="Q113" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="T113" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="U113" s="5"/>
-      <c r="V113" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="W113" s="5">
+      <c r="O113" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="P113" s="7">
+        <v>3.72</v>
+      </c>
+      <c r="Q113" s="7"/>
+      <c r="R113" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="S113" s="7"/>
+      <c r="T113" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U113" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="V113" s="7">
         <v>0.4</v>
       </c>
-      <c r="X113" s="5">
+      <c r="W113" s="7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="X113" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="Y113" s="7"/>
+      <c r="Z113" s="7"/>
+      <c r="AA113" s="7"/>
+      <c r="AB113" s="7"/>
+      <c r="AC113" s="7"/>
+      <c r="AD113" s="7">
         <v>0.11</v>
       </c>
-      <c r="Y113" s="5"/>
-      <c r="Z113" s="5"/>
-      <c r="AA113" s="5"/>
-      <c r="AB113" s="5"/>
-      <c r="AC113" s="5"/>
-      <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
-      <c r="AF113" s="5"/>
+      <c r="AF113" s="7">
+        <v>0.16</v>
+      </c>
       <c r="AG113" s="5"/>
       <c r="AH113" s="5"/>
       <c r="AI113" s="5"/>
       <c r="AJ113" s="5"/>
-      <c r="AK113" s="5"/>
-      <c r="AL113" s="5"/>
-      <c r="AN113" s="5">
-        <v>9</v>
-      </c>
-      <c r="AO113" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP113" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AQ113" s="5"/>
-      <c r="AR113" s="5"/>
-      <c r="AS113" s="5">
-        <v>61</v>
-      </c>
-      <c r="AT113" s="5">
-        <v>13</v>
-      </c>
-      <c r="AU113" s="5">
-        <v>14</v>
-      </c>
-      <c r="AV113" s="5"/>
+      <c r="AK113" s="7"/>
+      <c r="AL113" s="7"/>
+      <c r="AN113">
+        <v>7</v>
+      </c>
+      <c r="AO113">
+        <v>1</v>
+      </c>
+      <c r="AP113">
+        <v>4</v>
+      </c>
+      <c r="AQ113">
+        <v>0</v>
+      </c>
+      <c r="AS113">
+        <v>58</v>
+      </c>
+      <c r="AT113">
+        <v>12</v>
+      </c>
+      <c r="AU113">
+        <v>17</v>
+      </c>
+      <c r="AV113">
+        <v>0</v>
+      </c>
       <c r="AW113" s="5"/>
     </row>
     <row r="114" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A114" s="5">
-        <v>7</v>
-      </c>
-      <c r="B114" s="5">
-        <v>42.491627999999899</v>
-      </c>
-      <c r="C114" s="5">
-        <v>43.224062000000004</v>
+      <c r="A114" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114">
+        <v>42.492106</v>
+      </c>
+      <c r="C114">
+        <v>43.221525</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E114" s="5">
+        <v>104</v>
+      </c>
+      <c r="E114" s="7">
+        <v>0.31</v>
+      </c>
+      <c r="F114" s="7">
+        <v>6.63</v>
+      </c>
+      <c r="G114" s="7">
+        <v>276.60000000000002</v>
+      </c>
+      <c r="H114" s="7"/>
+      <c r="I114" s="7"/>
+      <c r="J114" s="7"/>
+      <c r="K114" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="L114" s="7">
+        <v>2.83</v>
+      </c>
+      <c r="M114" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="N114" s="7"/>
+      <c r="O114" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="P114" s="7">
         <v>0.38</v>
       </c>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5">
-        <v>473.2</v>
-      </c>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5">
-        <v>2.48</v>
-      </c>
-      <c r="L114" s="5">
-        <v>0.41</v>
-      </c>
-      <c r="M114" s="5">
+      <c r="Q114" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="R114" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="S114" s="7"/>
+      <c r="T114" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="U114" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="V114" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="W114" s="7">
         <v>0.6</v>
       </c>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5">
-        <v>0.17</v>
-      </c>
-      <c r="P114" s="5">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="Q114" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="R114" s="5">
-        <v>0.12</v>
-      </c>
-      <c r="S114" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="T114" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="U114" s="5"/>
-      <c r="V114" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="W114" s="5">
-        <v>0.7</v>
-      </c>
-      <c r="X114" s="5"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-      <c r="AA114" s="5"/>
-      <c r="AB114" s="5"/>
-      <c r="AC114" s="5"/>
-      <c r="AD114" s="5"/>
+      <c r="X114" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y114" s="7"/>
+      <c r="Z114" s="7"/>
+      <c r="AA114" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="AB114" s="7"/>
+      <c r="AC114" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AD114" s="7"/>
       <c r="AE114" s="5"/>
-      <c r="AF114" s="5"/>
+      <c r="AF114" s="7"/>
       <c r="AG114" s="5"/>
       <c r="AH114" s="5"/>
       <c r="AI114" s="5"/>
       <c r="AJ114" s="5"/>
-      <c r="AK114" s="5"/>
-      <c r="AL114" s="5"/>
-      <c r="AN114" s="5">
-        <v>9</v>
-      </c>
-      <c r="AO114" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AP114" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ114" s="5"/>
-      <c r="AR114" s="5"/>
-      <c r="AS114" s="5">
-        <v>68</v>
-      </c>
-      <c r="AT114" s="5">
-        <v>9</v>
-      </c>
-      <c r="AU114" s="5">
-        <v>11</v>
-      </c>
-      <c r="AV114" s="5"/>
+      <c r="AK114" s="7"/>
+      <c r="AL114" s="7"/>
+      <c r="AN114">
+        <v>29</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>1</v>
+      </c>
+      <c r="AQ114">
+        <v>1</v>
+      </c>
+      <c r="AS114">
+        <v>50</v>
+      </c>
+      <c r="AT114">
+        <v>6</v>
+      </c>
+      <c r="AU114">
+        <v>12</v>
+      </c>
+      <c r="AV114">
+        <v>0</v>
+      </c>
       <c r="AW114" s="5"/>
     </row>
     <row r="115" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A115" s="5">
-        <v>8</v>
-      </c>
-      <c r="B115" s="5">
-        <v>42.491681</v>
-      </c>
-      <c r="C115" s="5">
-        <v>43.223903999999898</v>
+      <c r="A115" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B115">
+        <v>42.493271999999898</v>
+      </c>
+      <c r="C115">
+        <v>43.223559000000002</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E115" s="5">
-        <v>1.04</v>
-      </c>
-      <c r="F115" s="5">
-        <v>6.73</v>
-      </c>
-      <c r="G115" s="5">
-        <v>351.3</v>
-      </c>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
-      <c r="J115" s="5"/>
-      <c r="K115" s="5">
-        <v>7.43</v>
-      </c>
-      <c r="L115" s="5">
-        <v>0.78</v>
-      </c>
-      <c r="M115" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="N115" s="5"/>
-      <c r="O115" s="5">
-        <v>0.6</v>
-      </c>
-      <c r="P115" s="5">
-        <v>2.87</v>
-      </c>
-      <c r="Q115" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="R115" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="S115" s="5">
-        <v>5.5E-2</v>
-      </c>
-      <c r="T115" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="U115" s="5"/>
-      <c r="V115" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="W115" s="5">
-        <v>1.7</v>
-      </c>
-      <c r="X115" s="5">
+        <v>104</v>
+      </c>
+      <c r="E115" s="7">
+        <v>1.59</v>
+      </c>
+      <c r="F115" s="7">
+        <v>12.28</v>
+      </c>
+      <c r="G115" s="7">
+        <v>232.9</v>
+      </c>
+      <c r="H115" s="7"/>
+      <c r="I115" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="J115" s="7"/>
+      <c r="K115" s="7">
+        <v>8.52</v>
+      </c>
+      <c r="L115" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="M115" s="7">
+        <v>0.12</v>
+      </c>
+      <c r="N115" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="O115" s="7">
+        <v>0.17</v>
+      </c>
+      <c r="P115" s="7">
+        <v>14.65</v>
+      </c>
+      <c r="Q115" s="7"/>
+      <c r="R115" s="7"/>
+      <c r="S115" s="7">
+        <v>1.2</v>
+      </c>
+      <c r="T115" s="7">
         <v>0.9</v>
       </c>
-      <c r="Y115" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="Z115" s="5"/>
-      <c r="AA115" s="5"/>
-      <c r="AB115" s="5"/>
-      <c r="AC115" s="5"/>
-      <c r="AD115" s="5"/>
+      <c r="U115" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="V115" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="W115" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="X115" s="7"/>
+      <c r="Y115" s="7"/>
+      <c r="Z115" s="7"/>
+      <c r="AA115" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="AB115" s="7"/>
+      <c r="AC115" s="7"/>
+      <c r="AD115" s="7"/>
       <c r="AE115" s="5"/>
-      <c r="AF115" s="5"/>
+      <c r="AF115" s="7"/>
       <c r="AG115" s="5"/>
       <c r="AH115" s="5"/>
       <c r="AI115" s="5"/>
       <c r="AJ115" s="5"/>
-      <c r="AK115" s="5"/>
-      <c r="AL115" s="5"/>
-      <c r="AN115" s="5">
-        <v>8</v>
-      </c>
-      <c r="AO115" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="AP115" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AQ115" s="5"/>
-      <c r="AR115" s="5"/>
-      <c r="AS115" s="5">
-        <v>56</v>
-      </c>
-      <c r="AT115" s="5">
-        <v>10</v>
-      </c>
-      <c r="AU115" s="5">
-        <v>22</v>
-      </c>
-      <c r="AV115" s="5"/>
+      <c r="AK115" s="7"/>
+      <c r="AL115" s="7"/>
+      <c r="AN115">
+        <v>17</v>
+      </c>
+      <c r="AO115">
+        <v>0</v>
+      </c>
+      <c r="AP115">
+        <v>4</v>
+      </c>
+      <c r="AQ115">
+        <v>0</v>
+      </c>
+      <c r="AS115">
+        <v>41</v>
+      </c>
+      <c r="AT115">
+        <v>17</v>
+      </c>
+      <c r="AU115">
+        <v>20</v>
+      </c>
+      <c r="AV115">
+        <v>0</v>
+      </c>
       <c r="AW115" s="5"/>
     </row>
     <row r="116" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A116" s="5">
-        <v>9</v>
-      </c>
-      <c r="B116" s="5">
-        <v>42.491481</v>
-      </c>
-      <c r="C116" s="5">
-        <v>43.223615000000002</v>
+      <c r="A116" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116">
+        <v>42.493332000000002</v>
+      </c>
+      <c r="C116">
+        <v>43.224272999999897</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E116" s="5">
-        <v>0.31</v>
-      </c>
-      <c r="F116" s="5">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G116" s="5">
-        <v>459.2</v>
-      </c>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
-      <c r="K116" s="5">
-        <v>2.88</v>
-      </c>
-      <c r="L116" s="5">
-        <v>0.47</v>
-      </c>
-      <c r="M116" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="N116" s="5"/>
-      <c r="O116" s="5">
+        <v>104</v>
+      </c>
+      <c r="E116" s="7">
+        <v>2.38</v>
+      </c>
+      <c r="F116" s="7">
+        <v>3.78</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H116" s="7"/>
+      <c r="I116" s="7"/>
+      <c r="J116" s="7"/>
+      <c r="K116" s="7">
+        <v>3.71</v>
+      </c>
+      <c r="L116" s="7">
+        <v>1.9</v>
+      </c>
+      <c r="M116" s="7">
+        <v>1.37</v>
+      </c>
+      <c r="N116" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="O116" s="7">
+        <v>0.18</v>
+      </c>
+      <c r="P116" s="7">
+        <v>8.9</v>
+      </c>
+      <c r="Q116" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="R116" s="7"/>
+      <c r="S116" s="7"/>
+      <c r="T116" s="7">
+        <v>1.4</v>
+      </c>
+      <c r="U116" s="7"/>
+      <c r="V116" s="7">
         <v>0.5</v>
       </c>
-      <c r="P116" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5">
+      <c r="W116" s="7">
         <v>0.2</v>
       </c>
-      <c r="U116" s="5"/>
-      <c r="V116" s="5">
-        <v>0.3</v>
-      </c>
-      <c r="W116" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="X116" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="Y116" s="5">
-        <v>0.9</v>
-      </c>
-      <c r="Z116" s="5"/>
-      <c r="AA116" s="5"/>
-      <c r="AB116" s="5"/>
-      <c r="AC116" s="5"/>
-      <c r="AD116" s="5">
-        <v>0.7</v>
-      </c>
+      <c r="X116" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y116" s="7">
+        <v>0.13</v>
+      </c>
+      <c r="Z116" s="7"/>
+      <c r="AA116" s="7"/>
+      <c r="AB116" s="7"/>
+      <c r="AC116" s="7"/>
+      <c r="AD116" s="7"/>
       <c r="AE116" s="5"/>
-      <c r="AF116" s="5"/>
+      <c r="AF116" s="7"/>
       <c r="AG116" s="5"/>
       <c r="AH116" s="5"/>
       <c r="AI116" s="5"/>
       <c r="AJ116" s="5"/>
-      <c r="AK116" s="5"/>
-      <c r="AL116" s="5"/>
-      <c r="AN116" s="5">
+      <c r="AK116" s="7"/>
+      <c r="AL116" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="AN116">
+        <v>8</v>
+      </c>
+      <c r="AO116">
+        <v>0</v>
+      </c>
+      <c r="AP116">
         <v>4</v>
       </c>
-      <c r="AO116" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AP116" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AQ116" s="5"/>
-      <c r="AR116" s="5"/>
-      <c r="AS116" s="5">
-        <v>70</v>
-      </c>
-      <c r="AT116" s="5">
-        <v>7</v>
-      </c>
-      <c r="AU116" s="5">
+      <c r="AQ116">
+        <v>0</v>
+      </c>
+      <c r="AS116">
+        <v>63</v>
+      </c>
+      <c r="AT116">
+        <v>9</v>
+      </c>
+      <c r="AU116">
         <v>16</v>
       </c>
-      <c r="AV116" s="5"/>
+      <c r="AV116">
+        <v>0</v>
+      </c>
       <c r="AW116" s="5"/>
-    </row>
-    <row r="117" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A117" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="B117">
-        <v>42.492564000000002</v>
-      </c>
-      <c r="C117">
-        <v>43.221874999999997</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E117" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="F117" s="7">
-        <v>8.61</v>
-      </c>
-      <c r="G117" s="7">
-        <v>248.4</v>
-      </c>
-      <c r="H117" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I117" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="J117" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="K117" s="7">
-        <v>7.42</v>
-      </c>
-      <c r="L117" s="7">
-        <v>0.63</v>
-      </c>
-      <c r="M117" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="N117" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="O117" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="P117" s="7">
-        <v>2.34</v>
-      </c>
-      <c r="Q117" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="R117" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="S117" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="T117" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="U117" s="7"/>
-      <c r="V117" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="W117" s="7">
-        <v>1.5</v>
-      </c>
-      <c r="X117" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="Y117" s="7"/>
-      <c r="Z117" s="7"/>
-      <c r="AA117" s="7"/>
-      <c r="AB117" s="7"/>
-      <c r="AC117" s="7">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="AD117" s="7"/>
-      <c r="AE117" s="5"/>
-      <c r="AF117" s="7"/>
-      <c r="AG117" s="5"/>
-      <c r="AH117" s="5"/>
-      <c r="AI117" s="5"/>
-      <c r="AJ117" s="5"/>
-      <c r="AK117" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="AL117" s="7"/>
-      <c r="AN117">
-        <v>18</v>
-      </c>
-      <c r="AO117">
-        <v>0</v>
-      </c>
-      <c r="AP117">
-        <v>1</v>
-      </c>
-      <c r="AQ117">
-        <v>0</v>
-      </c>
-      <c r="AS117">
-        <v>60</v>
-      </c>
-      <c r="AT117">
-        <v>5</v>
-      </c>
-      <c r="AU117">
-        <v>16</v>
-      </c>
-      <c r="AV117">
-        <v>0</v>
-      </c>
-      <c r="AW117" s="5"/>
-    </row>
-    <row r="118" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A118" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118">
-        <v>42.490668999999897</v>
-      </c>
-      <c r="C118">
-        <v>43.220964000000002</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E118" s="7">
-        <v>0.72</v>
-      </c>
-      <c r="F118" s="7">
-        <v>10.58</v>
-      </c>
-      <c r="G118" s="7">
-        <v>264.5</v>
-      </c>
-      <c r="H118" s="7"/>
-      <c r="I118" s="7"/>
-      <c r="J118" s="7">
-        <v>0.46</v>
-      </c>
-      <c r="K118" s="7">
-        <v>8.82</v>
-      </c>
-      <c r="L118" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="M118" s="7">
-        <v>0.35</v>
-      </c>
-      <c r="N118" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="O118" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="P118" s="7">
-        <v>3.72</v>
-      </c>
-      <c r="Q118" s="7"/>
-      <c r="R118" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="S118" s="7"/>
-      <c r="T118" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U118" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="V118" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="W118" s="7">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="X118" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="Y118" s="7"/>
-      <c r="Z118" s="7"/>
-      <c r="AA118" s="7"/>
-      <c r="AB118" s="7"/>
-      <c r="AC118" s="7"/>
-      <c r="AD118" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="AE118" s="5"/>
-      <c r="AF118" s="7">
-        <v>0.16</v>
-      </c>
-      <c r="AG118" s="5"/>
-      <c r="AH118" s="5"/>
-      <c r="AI118" s="5"/>
-      <c r="AJ118" s="5"/>
-      <c r="AK118" s="7"/>
-      <c r="AL118" s="7"/>
-      <c r="AN118">
-        <v>7</v>
-      </c>
-      <c r="AO118">
-        <v>1</v>
-      </c>
-      <c r="AP118">
-        <v>4</v>
-      </c>
-      <c r="AQ118">
-        <v>0</v>
-      </c>
-      <c r="AS118">
-        <v>58</v>
-      </c>
-      <c r="AT118">
-        <v>12</v>
-      </c>
-      <c r="AU118">
-        <v>17</v>
-      </c>
-      <c r="AV118">
-        <v>0</v>
-      </c>
-      <c r="AW118" s="5"/>
-    </row>
-    <row r="119" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A119" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119">
-        <v>42.492106</v>
-      </c>
-      <c r="C119">
-        <v>43.221525</v>
-      </c>
-      <c r="D119" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E119" s="7">
-        <v>0.31</v>
-      </c>
-      <c r="F119" s="7">
-        <v>6.63</v>
-      </c>
-      <c r="G119" s="7">
-        <v>276.60000000000002</v>
-      </c>
-      <c r="H119" s="7"/>
-      <c r="I119" s="7"/>
-      <c r="J119" s="7"/>
-      <c r="K119" s="7">
-        <v>1.25</v>
-      </c>
-      <c r="L119" s="7">
-        <v>2.83</v>
-      </c>
-      <c r="M119" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="P119" s="7">
-        <v>0.38</v>
-      </c>
-      <c r="Q119" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="R119" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="S119" s="7"/>
-      <c r="T119" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="U119" s="7">
-        <v>0.01</v>
-      </c>
-      <c r="V119" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="W119" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="X119" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Y119" s="7"/>
-      <c r="Z119" s="7"/>
-      <c r="AA119" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="AB119" s="7"/>
-      <c r="AC119" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="AD119" s="7"/>
-      <c r="AE119" s="5"/>
-      <c r="AF119" s="7"/>
-      <c r="AG119" s="5"/>
-      <c r="AH119" s="5"/>
-      <c r="AI119" s="5"/>
-      <c r="AJ119" s="5"/>
-      <c r="AK119" s="7"/>
-      <c r="AL119" s="7"/>
-      <c r="AN119">
-        <v>29</v>
-      </c>
-      <c r="AO119">
-        <v>0</v>
-      </c>
-      <c r="AP119">
-        <v>1</v>
-      </c>
-      <c r="AQ119">
-        <v>1</v>
-      </c>
-      <c r="AS119">
-        <v>50</v>
-      </c>
-      <c r="AT119">
-        <v>6</v>
-      </c>
-      <c r="AU119">
-        <v>12</v>
-      </c>
-      <c r="AV119">
-        <v>0</v>
-      </c>
-      <c r="AW119" s="5"/>
-    </row>
-    <row r="120" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A120" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B120">
-        <v>42.493271999999898</v>
-      </c>
-      <c r="C120">
-        <v>43.223559000000002</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E120" s="7">
-        <v>1.59</v>
-      </c>
-      <c r="F120" s="7">
-        <v>12.28</v>
-      </c>
-      <c r="G120" s="7">
-        <v>232.9</v>
-      </c>
-      <c r="H120" s="7"/>
-      <c r="I120" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="J120" s="7"/>
-      <c r="K120" s="7">
-        <v>8.52</v>
-      </c>
-      <c r="L120" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="M120" s="7">
-        <v>0.12</v>
-      </c>
-      <c r="N120" s="7">
-        <v>0.05</v>
-      </c>
-      <c r="O120" s="7">
-        <v>0.17</v>
-      </c>
-      <c r="P120" s="7">
-        <v>14.65</v>
-      </c>
-      <c r="Q120" s="7"/>
-      <c r="R120" s="7"/>
-      <c r="S120" s="7">
-        <v>1.2</v>
-      </c>
-      <c r="T120" s="7">
-        <v>0.9</v>
-      </c>
-      <c r="U120" s="7">
-        <v>0.02</v>
-      </c>
-      <c r="V120" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="W120" s="7">
-        <v>0.8</v>
-      </c>
-      <c r="X120" s="7"/>
-      <c r="Y120" s="7"/>
-      <c r="Z120" s="7"/>
-      <c r="AA120" s="7">
-        <v>0.08</v>
-      </c>
-      <c r="AB120" s="7"/>
-      <c r="AC120" s="7"/>
-      <c r="AD120" s="7"/>
-      <c r="AE120" s="5"/>
-      <c r="AF120" s="7"/>
-      <c r="AG120" s="5"/>
-      <c r="AH120" s="5"/>
-      <c r="AI120" s="5"/>
-      <c r="AJ120" s="5"/>
-      <c r="AK120" s="7"/>
-      <c r="AL120" s="7"/>
-      <c r="AN120">
-        <v>17</v>
-      </c>
-      <c r="AO120">
-        <v>0</v>
-      </c>
-      <c r="AP120">
-        <v>4</v>
-      </c>
-      <c r="AQ120">
-        <v>0</v>
-      </c>
-      <c r="AS120">
-        <v>41</v>
-      </c>
-      <c r="AT120">
-        <v>17</v>
-      </c>
-      <c r="AU120">
-        <v>20</v>
-      </c>
-      <c r="AV120">
-        <v>0</v>
-      </c>
-      <c r="AW120" s="5"/>
-    </row>
-    <row r="121" spans="1:49" x14ac:dyDescent="0.3">
-      <c r="A121" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="B121">
-        <v>42.493332000000002</v>
-      </c>
-      <c r="C121">
-        <v>43.224272999999897</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="E121" s="7">
-        <v>2.38</v>
-      </c>
-      <c r="F121" s="7">
-        <v>3.78</v>
-      </c>
-      <c r="G121" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H121" s="7"/>
-      <c r="I121" s="7"/>
-      <c r="J121" s="7"/>
-      <c r="K121" s="7">
-        <v>3.71</v>
-      </c>
-      <c r="L121" s="7">
-        <v>1.9</v>
-      </c>
-      <c r="M121" s="7">
-        <v>1.37</v>
-      </c>
-      <c r="N121" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="O121" s="7">
-        <v>0.18</v>
-      </c>
-      <c r="P121" s="7">
-        <v>8.9</v>
-      </c>
-      <c r="Q121" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="R121" s="7"/>
-      <c r="S121" s="7"/>
-      <c r="T121" s="7">
-        <v>1.4</v>
-      </c>
-      <c r="U121" s="7"/>
-      <c r="V121" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="W121" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="X121" s="7">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="Y121" s="7">
-        <v>0.13</v>
-      </c>
-      <c r="Z121" s="7"/>
-      <c r="AA121" s="7"/>
-      <c r="AB121" s="7"/>
-      <c r="AC121" s="7"/>
-      <c r="AD121" s="7"/>
-      <c r="AE121" s="5"/>
-      <c r="AF121" s="7"/>
-      <c r="AG121" s="5"/>
-      <c r="AH121" s="5"/>
-      <c r="AI121" s="5"/>
-      <c r="AJ121" s="5"/>
-      <c r="AK121" s="7"/>
-      <c r="AL121" s="7">
-        <v>0.03</v>
-      </c>
-      <c r="AN121">
-        <v>8</v>
-      </c>
-      <c r="AO121">
-        <v>0</v>
-      </c>
-      <c r="AP121">
-        <v>4</v>
-      </c>
-      <c r="AQ121">
-        <v>0</v>
-      </c>
-      <c r="AS121">
-        <v>63</v>
-      </c>
-      <c r="AT121">
-        <v>9</v>
-      </c>
-      <c r="AU121">
-        <v>16</v>
-      </c>
-      <c r="AV121">
-        <v>0</v>
-      </c>
-      <c r="AW121" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Whole_Catchment/geology/data/geology_data.xlsx
+++ b/Whole_Catchment/geology/data/geology_data.xlsx
@@ -751,8 +751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7111,7 +7111,7 @@
         <v>43.222166999807257</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E61" s="5">
         <v>20.350000000000001</v>
@@ -8165,7 +8165,7 @@
         <v>43.221727999999899</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E71" s="5">
         <v>1.1100000000000001</v>
